--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6477,28 +6477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1963.31863249345</v>
+        <v>2097.299647043318</v>
       </c>
       <c r="AB2" t="n">
-        <v>2686.299168482589</v>
+        <v>2869.617903414914</v>
       </c>
       <c r="AC2" t="n">
-        <v>2429.922546087172</v>
+        <v>2595.745598247017</v>
       </c>
       <c r="AD2" t="n">
-        <v>1963318.63249345</v>
+        <v>2097299.647043318</v>
       </c>
       <c r="AE2" t="n">
-        <v>2686299.168482589</v>
+        <v>2869617.903414913</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.18399110184661e-07</v>
+        <v>1.329226441094659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.15162037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>2429922.546087172</v>
+        <v>2595745.598247017</v>
       </c>
     </row>
     <row r="3">
@@ -6583,28 +6583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1153.898967177165</v>
+        <v>1251.378431232019</v>
       </c>
       <c r="AB3" t="n">
-        <v>1578.815473321435</v>
+        <v>1712.191176531726</v>
       </c>
       <c r="AC3" t="n">
-        <v>1428.13554042907</v>
+        <v>1548.782053718947</v>
       </c>
       <c r="AD3" t="n">
-        <v>1153898.967177165</v>
+        <v>1251378.431232019</v>
       </c>
       <c r="AE3" t="n">
-        <v>1578815.473321435</v>
+        <v>1712191.176531726</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.017543881850121e-06</v>
+        <v>1.88272258909343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.93344907407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>1428135.54042907</v>
+        <v>1548782.053718947</v>
       </c>
     </row>
     <row r="4">
@@ -6689,28 +6689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>989.4143574735115</v>
+        <v>1074.612969568667</v>
       </c>
       <c r="AB4" t="n">
-        <v>1353.760373776057</v>
+        <v>1470.332873542138</v>
       </c>
       <c r="AC4" t="n">
-        <v>1224.559383717487</v>
+        <v>1330.006367716424</v>
       </c>
       <c r="AD4" t="n">
-        <v>989414.3574735115</v>
+        <v>1074612.969568667</v>
       </c>
       <c r="AE4" t="n">
-        <v>1353760.373776057</v>
+        <v>1470332.873542138</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.134817455433157e-06</v>
+        <v>2.099709404135785e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.3912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1224559.383717487</v>
+        <v>1330006.367716424</v>
       </c>
     </row>
     <row r="5">
@@ -6795,28 +6795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>907.5393784120063</v>
+        <v>992.823241853182</v>
       </c>
       <c r="AB5" t="n">
-        <v>1241.735415354956</v>
+        <v>1358.424559773686</v>
       </c>
       <c r="AC5" t="n">
-        <v>1123.22593010008</v>
+        <v>1228.778426349729</v>
       </c>
       <c r="AD5" t="n">
-        <v>907539.3784120063</v>
+        <v>992823.241853182</v>
       </c>
       <c r="AE5" t="n">
-        <v>1241735.415354956</v>
+        <v>1358424.559773687</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.199677671902055e-06</v>
+        <v>2.219717785943804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.66782407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>1123225.93010008</v>
+        <v>1228778.426349729</v>
       </c>
     </row>
     <row r="6">
@@ -6901,28 +6901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>868.1701798003693</v>
+        <v>941.2585321364179</v>
       </c>
       <c r="AB6" t="n">
-        <v>1187.868740968052</v>
+        <v>1287.87144906477</v>
       </c>
       <c r="AC6" t="n">
-        <v>1074.50021551431</v>
+        <v>1164.958805504959</v>
       </c>
       <c r="AD6" t="n">
-        <v>868170.1798003693</v>
+        <v>941258.5321364179</v>
       </c>
       <c r="AE6" t="n">
-        <v>1187868.740968052</v>
+        <v>1287871.44906477</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.239801724843139e-06</v>
+        <v>2.293957788940831e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.25694444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1074500.215514309</v>
+        <v>1164958.805504959</v>
       </c>
     </row>
     <row r="7">
@@ -7007,28 +7007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>830.0611549766556</v>
+        <v>915.2596775632596</v>
       </c>
       <c r="AB7" t="n">
-        <v>1135.726291952729</v>
+        <v>1252.298669249262</v>
       </c>
       <c r="AC7" t="n">
-        <v>1027.334168650622</v>
+        <v>1132.781041868332</v>
       </c>
       <c r="AD7" t="n">
-        <v>830061.1549766556</v>
+        <v>915259.6775632596</v>
       </c>
       <c r="AE7" t="n">
-        <v>1135726.291952729</v>
+        <v>1252298.669249261</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.266691142520933e-06</v>
+        <v>2.343710251682293e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.99652777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1027334.168650622</v>
+        <v>1132781.041868332</v>
       </c>
     </row>
     <row r="8">
@@ -7113,28 +7113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>809.520154641095</v>
+        <v>882.6937583231638</v>
       </c>
       <c r="AB8" t="n">
-        <v>1107.621189088636</v>
+        <v>1207.740541838003</v>
       </c>
       <c r="AC8" t="n">
-        <v>1001.911377358119</v>
+        <v>1092.47547959948</v>
       </c>
       <c r="AD8" t="n">
-        <v>809520.154641095</v>
+        <v>882693.7583231638</v>
       </c>
       <c r="AE8" t="n">
-        <v>1107621.189088636</v>
+        <v>1207740.541838003</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.288223684020729e-06</v>
+        <v>2.38355109098698e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.796875</v>
       </c>
       <c r="AH8" t="n">
-        <v>1001911.377358119</v>
+        <v>1092475.47959948</v>
       </c>
     </row>
     <row r="9">
@@ -7219,28 +7219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>794.9252258687407</v>
+        <v>868.0988295508097</v>
       </c>
       <c r="AB9" t="n">
-        <v>1087.651763659487</v>
+        <v>1187.771116408854</v>
       </c>
       <c r="AC9" t="n">
-        <v>983.8478058646627</v>
+        <v>1074.411908106024</v>
       </c>
       <c r="AD9" t="n">
-        <v>794925.2258687407</v>
+        <v>868098.8295508097</v>
       </c>
       <c r="AE9" t="n">
-        <v>1087651.763659487</v>
+        <v>1187771.116408854</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.303086389494978e-06</v>
+        <v>2.411050987385093e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.66087962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>983847.8058646627</v>
+        <v>1074411.908106024</v>
       </c>
     </row>
     <row r="10">
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>783.9332363052157</v>
+        <v>857.1068399872846</v>
       </c>
       <c r="AB10" t="n">
-        <v>1072.612038606317</v>
+        <v>1172.731391355684</v>
       </c>
       <c r="AC10" t="n">
-        <v>970.2434510621811</v>
+        <v>1060.807553303542</v>
       </c>
       <c r="AD10" t="n">
-        <v>783933.2363052157</v>
+        <v>857106.8399872846</v>
       </c>
       <c r="AE10" t="n">
-        <v>1072612.038606317</v>
+        <v>1172731.391355684</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.314115252214386e-06</v>
+        <v>2.431457270931396e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.56539351851852</v>
       </c>
       <c r="AH10" t="n">
-        <v>970243.451062181</v>
+        <v>1060807.553303542</v>
       </c>
     </row>
     <row r="11">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>773.865712626302</v>
+        <v>846.8687241077786</v>
       </c>
       <c r="AB11" t="n">
-        <v>1058.837208561029</v>
+        <v>1158.723149535549</v>
       </c>
       <c r="AC11" t="n">
-        <v>957.7832714633196</v>
+        <v>1048.13623842203</v>
       </c>
       <c r="AD11" t="n">
-        <v>773865.7126263019</v>
+        <v>846868.7241077786</v>
       </c>
       <c r="AE11" t="n">
-        <v>1058837.208561029</v>
+        <v>1158723.149535549</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.323043379177717e-06</v>
+        <v>2.447976643326022e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.48726851851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>957783.2714633195</v>
+        <v>1048136.23842203</v>
       </c>
     </row>
     <row r="12">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>764.1680600204276</v>
+        <v>837.1710715019044</v>
       </c>
       <c r="AB12" t="n">
-        <v>1045.568452435434</v>
+        <v>1145.454393409954</v>
       </c>
       <c r="AC12" t="n">
-        <v>945.7808667995349</v>
+        <v>1036.133833758245</v>
       </c>
       <c r="AD12" t="n">
-        <v>764168.0600204276</v>
+        <v>837171.0715019044</v>
       </c>
       <c r="AE12" t="n">
-        <v>1045568.452435434</v>
+        <v>1145454.393409954</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.331813950959341e-06</v>
+        <v>2.464204497384272e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.40914351851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>945780.8667995349</v>
+        <v>1036133.833758245</v>
       </c>
     </row>
     <row r="13">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>757.7961585123358</v>
+        <v>830.7991699938126</v>
       </c>
       <c r="AB13" t="n">
-        <v>1036.850135683608</v>
+        <v>1136.736076658128</v>
       </c>
       <c r="AC13" t="n">
-        <v>937.8946139622685</v>
+        <v>1028.247580920979</v>
       </c>
       <c r="AD13" t="n">
-        <v>757796.1585123357</v>
+        <v>830799.1699938126</v>
       </c>
       <c r="AE13" t="n">
-        <v>1036850.135683608</v>
+        <v>1136736.076658128</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.336540606410516e-06</v>
+        <v>2.472950047475545e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.36863425925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>937894.6139622686</v>
+        <v>1028247.580920979</v>
       </c>
     </row>
     <row r="14">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>749.0633648797805</v>
+        <v>822.0663763612573</v>
       </c>
       <c r="AB14" t="n">
-        <v>1024.901542171881</v>
+        <v>1124.787483146401</v>
       </c>
       <c r="AC14" t="n">
-        <v>927.0863774453449</v>
+        <v>1017.439344404055</v>
       </c>
       <c r="AD14" t="n">
-        <v>749063.3648797804</v>
+        <v>822066.3763612573</v>
       </c>
       <c r="AE14" t="n">
-        <v>1024901.542171881</v>
+        <v>1124787.483146401</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.343998218344591e-06</v>
+        <v>2.486748582063998e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.30787037037037</v>
       </c>
       <c r="AH14" t="n">
-        <v>927086.3774453448</v>
+        <v>1017439.344404055</v>
       </c>
     </row>
     <row r="15">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>743.1270866899612</v>
+        <v>816.130098171438</v>
       </c>
       <c r="AB15" t="n">
-        <v>1016.77926446246</v>
+        <v>1116.66520543698</v>
       </c>
       <c r="AC15" t="n">
-        <v>919.7392785208224</v>
+        <v>1010.092245479533</v>
       </c>
       <c r="AD15" t="n">
-        <v>743127.0866899611</v>
+        <v>816130.098171438</v>
       </c>
       <c r="AE15" t="n">
-        <v>1016779.26446246</v>
+        <v>1116665.20543698</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.348147171462845e-06</v>
+        <v>2.49442523158856e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.27314814814815</v>
       </c>
       <c r="AH15" t="n">
-        <v>919739.2785208224</v>
+        <v>1010092.245479533</v>
       </c>
     </row>
     <row r="16">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>736.497856946115</v>
+        <v>809.5008684275919</v>
       </c>
       <c r="AB16" t="n">
-        <v>1007.708859865954</v>
+        <v>1107.594800840474</v>
       </c>
       <c r="AC16" t="n">
-        <v>911.5345406086143</v>
+        <v>1001.887507567325</v>
       </c>
       <c r="AD16" t="n">
-        <v>736497.856946115</v>
+        <v>809500.8684275919</v>
       </c>
       <c r="AE16" t="n">
-        <v>1007708.859865954</v>
+        <v>1107594.800840474</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.352926345307921e-06</v>
+        <v>2.503267954458624e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.23263888888889</v>
       </c>
       <c r="AH16" t="n">
-        <v>911534.5406086143</v>
+        <v>1001887.507567325</v>
       </c>
     </row>
     <row r="17">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>731.1050359201206</v>
+        <v>792.0831284970625</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000.330164223716</v>
+        <v>1083.76308065107</v>
       </c>
       <c r="AC17" t="n">
-        <v>904.860057322407</v>
+        <v>980.330253304768</v>
       </c>
       <c r="AD17" t="n">
-        <v>731105.0359201205</v>
+        <v>792083.1284970625</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000330.164223716</v>
+        <v>1083763.08065107</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.355394709821313e-06</v>
+        <v>2.507835075061844e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.21238425925926</v>
       </c>
       <c r="AH17" t="n">
-        <v>904860.057322407</v>
+        <v>980330.253304768</v>
       </c>
     </row>
     <row r="18">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>723.8750564923713</v>
+        <v>784.8531490693132</v>
       </c>
       <c r="AB18" t="n">
-        <v>990.4377874064883</v>
+        <v>1073.870703833843</v>
       </c>
       <c r="AC18" t="n">
-        <v>895.9117950645776</v>
+        <v>971.3819910469385</v>
       </c>
       <c r="AD18" t="n">
-        <v>723875.0564923713</v>
+        <v>784853.1490693132</v>
       </c>
       <c r="AE18" t="n">
-        <v>990437.7874064883</v>
+        <v>1073870.703833842</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.360436475635899e-06</v>
+        <v>2.517163661825868e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.16898148148148</v>
       </c>
       <c r="AH18" t="n">
-        <v>895911.7950645776</v>
+        <v>971381.9910469386</v>
       </c>
     </row>
     <row r="19">
@@ -8279,28 +8279,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>719.6887833623338</v>
+        <v>780.6668759392758</v>
       </c>
       <c r="AB19" t="n">
-        <v>984.7099438246349</v>
+        <v>1068.142860251989</v>
       </c>
       <c r="AC19" t="n">
-        <v>890.7306088350973</v>
+        <v>966.2008048174582</v>
       </c>
       <c r="AD19" t="n">
-        <v>719688.7833623338</v>
+        <v>780666.8759392757</v>
       </c>
       <c r="AE19" t="n">
-        <v>984709.9438246349</v>
+        <v>1068142.860251989</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.362274619422467e-06</v>
+        <v>2.520564709083585e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.15451388888889</v>
       </c>
       <c r="AH19" t="n">
-        <v>890730.6088350973</v>
+        <v>966200.8048174583</v>
       </c>
     </row>
     <row r="20">
@@ -8385,28 +8385,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>714.7635270282728</v>
+        <v>775.7416196052149</v>
       </c>
       <c r="AB20" t="n">
-        <v>977.9709908213987</v>
+        <v>1061.403907248753</v>
       </c>
       <c r="AC20" t="n">
-        <v>884.6348120483101</v>
+        <v>960.1050080306711</v>
       </c>
       <c r="AD20" t="n">
-        <v>714763.5270282729</v>
+        <v>775741.6196052148</v>
       </c>
       <c r="AE20" t="n">
-        <v>977970.9908213987</v>
+        <v>1061403.907248753</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.364742983935858e-06</v>
+        <v>2.525131829686806e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.13425925925926</v>
       </c>
       <c r="AH20" t="n">
-        <v>884634.8120483101</v>
+        <v>960105.0080306712</v>
       </c>
     </row>
     <row r="21">
@@ -8491,28 +8491,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>709.2425961827362</v>
+        <v>770.2206887596781</v>
       </c>
       <c r="AB21" t="n">
-        <v>970.4170096722567</v>
+        <v>1053.849926099611</v>
       </c>
       <c r="AC21" t="n">
-        <v>877.801772257963</v>
+        <v>953.271968240324</v>
       </c>
       <c r="AD21" t="n">
-        <v>709242.5961827362</v>
+        <v>770220.688759678</v>
       </c>
       <c r="AE21" t="n">
-        <v>970417.0096722567</v>
+        <v>1053849.926099611</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.367631495600465e-06</v>
+        <v>2.530476332520361e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="AH21" t="n">
-        <v>877801.772257963</v>
+        <v>953271.9682403239</v>
       </c>
     </row>
     <row r="22">
@@ -8597,28 +8597,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>704.3504207175902</v>
+        <v>765.3285132945322</v>
       </c>
       <c r="AB22" t="n">
-        <v>963.7233193732947</v>
+        <v>1047.156235800649</v>
       </c>
       <c r="AC22" t="n">
-        <v>871.7469183664806</v>
+        <v>947.2171143488417</v>
       </c>
       <c r="AD22" t="n">
-        <v>704350.4207175901</v>
+        <v>765328.5132945322</v>
       </c>
       <c r="AE22" t="n">
-        <v>963723.3193732947</v>
+        <v>1047156.235800649</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.369574676174837e-06</v>
+        <v>2.534071725335662e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.09664351851852</v>
       </c>
       <c r="AH22" t="n">
-        <v>871746.9183664806</v>
+        <v>947217.1143488417</v>
       </c>
     </row>
     <row r="23">
@@ -8703,28 +8703,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>698.7305410709685</v>
+        <v>759.7086336479103</v>
       </c>
       <c r="AB23" t="n">
-        <v>956.033952109195</v>
+        <v>1039.466868536549</v>
       </c>
       <c r="AC23" t="n">
-        <v>864.7914135219718</v>
+        <v>940.2616095043329</v>
       </c>
       <c r="AD23" t="n">
-        <v>698730.5410709685</v>
+        <v>759708.6336479103</v>
       </c>
       <c r="AE23" t="n">
-        <v>956033.9521091949</v>
+        <v>1039466.868536549</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.372253114263836e-06</v>
+        <v>2.53902753705405e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11.07349537037037</v>
       </c>
       <c r="AH23" t="n">
-        <v>864791.4135219718</v>
+        <v>940261.6095043329</v>
       </c>
     </row>
     <row r="24">
@@ -8809,28 +8809,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>694.0002866439737</v>
+        <v>754.9783792209155</v>
       </c>
       <c r="AB24" t="n">
-        <v>949.5618093180834</v>
+        <v>1032.994725745437</v>
       </c>
       <c r="AC24" t="n">
-        <v>858.9369629551345</v>
+        <v>934.4071589374955</v>
       </c>
       <c r="AD24" t="n">
-        <v>694000.2866439737</v>
+        <v>754978.3792209155</v>
       </c>
       <c r="AE24" t="n">
-        <v>949561.8093180835</v>
+        <v>1032994.725745437</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.372463187839444e-06</v>
+        <v>2.539416228169218e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11.07349537037037</v>
       </c>
       <c r="AH24" t="n">
-        <v>858936.9629551345</v>
+        <v>934407.1589374956</v>
       </c>
     </row>
     <row r="25">
@@ -8915,28 +8915,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>691.0095089283443</v>
+        <v>751.9876015052863</v>
       </c>
       <c r="AB25" t="n">
-        <v>945.4696953037588</v>
+        <v>1028.902611731113</v>
       </c>
       <c r="AC25" t="n">
-        <v>855.235394559019</v>
+        <v>930.70559054138</v>
       </c>
       <c r="AD25" t="n">
-        <v>691009.5089283444</v>
+        <v>751987.6015052863</v>
       </c>
       <c r="AE25" t="n">
-        <v>945469.6953037588</v>
+        <v>1028902.611731113</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.374616441989423e-06</v>
+        <v>2.543400312099686e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11.05613425925926</v>
       </c>
       <c r="AH25" t="n">
-        <v>855235.394559019</v>
+        <v>930705.59054138</v>
       </c>
     </row>
     <row r="26">
@@ -9021,28 +9021,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>691.7506648821155</v>
+        <v>752.7287574590575</v>
       </c>
       <c r="AB26" t="n">
-        <v>946.4837775772016</v>
+        <v>1029.916694004556</v>
       </c>
       <c r="AC26" t="n">
-        <v>856.1526942435578</v>
+        <v>931.6228902259188</v>
       </c>
       <c r="AD26" t="n">
-        <v>691750.6648821156</v>
+        <v>752728.7574590575</v>
       </c>
       <c r="AE26" t="n">
-        <v>946483.7775772016</v>
+        <v>1029916.694004556</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.37424881323211e-06</v>
+        <v>2.542720102648143e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>12</v>
+        <v>11.05902777777778</v>
       </c>
       <c r="AH26" t="n">
-        <v>856152.6942435578</v>
+        <v>931622.8902259188</v>
       </c>
     </row>
     <row r="27">
@@ -9127,28 +9127,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>694.1353810104008</v>
+        <v>755.1134735873428</v>
       </c>
       <c r="AB27" t="n">
-        <v>949.746651390172</v>
+        <v>1033.179567817526</v>
       </c>
       <c r="AC27" t="n">
-        <v>859.1041639592905</v>
+        <v>934.5743599416514</v>
       </c>
       <c r="AD27" t="n">
-        <v>694135.3810104008</v>
+        <v>755113.4735873428</v>
       </c>
       <c r="AE27" t="n">
-        <v>949746.6513901721</v>
+        <v>1033179.567817526</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.374301331626012e-06</v>
+        <v>2.542817275426935e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>12</v>
+        <v>11.05613425925926</v>
       </c>
       <c r="AH27" t="n">
-        <v>859104.1639592905</v>
+        <v>934574.3599416515</v>
       </c>
     </row>
   </sheetData>
@@ -9424,28 +9424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1468.361464361656</v>
+        <v>1585.742652633664</v>
       </c>
       <c r="AB2" t="n">
-        <v>2009.076935075515</v>
+        <v>2169.683055361824</v>
       </c>
       <c r="AC2" t="n">
-        <v>1817.333452149095</v>
+        <v>1962.611549727384</v>
       </c>
       <c r="AD2" t="n">
-        <v>1468361.464361656</v>
+        <v>1585742.652633664</v>
       </c>
       <c r="AE2" t="n">
-        <v>2009076.935075515</v>
+        <v>2169683.055361824</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.504203477847217e-07</v>
+        <v>1.621032430289794e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.48668981481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>1817333.452149095</v>
+        <v>1962611.549727384</v>
       </c>
     </row>
     <row r="3">
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>948.3956170727321</v>
+        <v>1042.334632425327</v>
       </c>
       <c r="AB3" t="n">
-        <v>1297.6367235406</v>
+        <v>1426.168228642887</v>
       </c>
       <c r="AC3" t="n">
-        <v>1173.792095890465</v>
+        <v>1290.05673454089</v>
       </c>
       <c r="AD3" t="n">
-        <v>948395.6170727321</v>
+        <v>1042334.632425327</v>
       </c>
       <c r="AE3" t="n">
-        <v>1297636.7235406</v>
+        <v>1426168.228642887</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.129185236590919e-06</v>
+        <v>2.152401330808348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.92071759259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1173792.095890465</v>
+        <v>1290056.73454089</v>
       </c>
     </row>
     <row r="4">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>831.9587552848004</v>
+        <v>914.2193993592493</v>
       </c>
       <c r="AB4" t="n">
-        <v>1138.32267241055</v>
+        <v>1250.875314716699</v>
       </c>
       <c r="AC4" t="n">
-        <v>1029.682754201591</v>
+        <v>1131.493530294667</v>
       </c>
       <c r="AD4" t="n">
-        <v>831958.7552848004</v>
+        <v>914219.3993592494</v>
       </c>
       <c r="AE4" t="n">
-        <v>1138322.67241055</v>
+        <v>1250875.3147167</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.232791676457109e-06</v>
+        <v>2.349891195023683e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.75173611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1029682.754201591</v>
+        <v>1131493.530294667</v>
       </c>
     </row>
     <row r="5">
@@ -9742,28 +9742,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>782.189885206195</v>
+        <v>852.6869066564777</v>
       </c>
       <c r="AB5" t="n">
-        <v>1070.226708721415</v>
+        <v>1166.683843578777</v>
       </c>
       <c r="AC5" t="n">
-        <v>968.0857737136618</v>
+        <v>1055.337174998677</v>
       </c>
       <c r="AD5" t="n">
-        <v>782189.8852061949</v>
+        <v>852686.9066564777</v>
       </c>
       <c r="AE5" t="n">
-        <v>1070226.708721415</v>
+        <v>1166683.843578778</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288805436028184e-06</v>
+        <v>2.456662065504024e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.19618055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>968085.7737136617</v>
+        <v>1055337.174998677</v>
       </c>
     </row>
     <row r="6">
@@ -9848,28 +9848,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>739.5125363206857</v>
+        <v>810.0948091169893</v>
       </c>
       <c r="AB6" t="n">
-        <v>1011.833677184509</v>
+        <v>1108.407456694521</v>
       </c>
       <c r="AC6" t="n">
-        <v>915.265691151504</v>
+        <v>1002.622604687232</v>
       </c>
       <c r="AD6" t="n">
-        <v>739512.5363206858</v>
+        <v>810094.8091169893</v>
       </c>
       <c r="AE6" t="n">
-        <v>1011833.677184509</v>
+        <v>1108407.456694521</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324825923511815e-06</v>
+        <v>2.525322673776057e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.86631944444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>915265.6911515041</v>
+        <v>1002622.604687231</v>
       </c>
     </row>
     <row r="7">
@@ -9954,28 +9954,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>719.4279681788397</v>
+        <v>790.010240975143</v>
       </c>
       <c r="AB7" t="n">
-        <v>984.3530849842246</v>
+        <v>1080.926864494237</v>
       </c>
       <c r="AC7" t="n">
-        <v>890.4078081015612</v>
+        <v>977.7647216372884</v>
       </c>
       <c r="AD7" t="n">
-        <v>719427.9681788397</v>
+        <v>790010.240975143</v>
       </c>
       <c r="AE7" t="n">
-        <v>984353.0849842245</v>
+        <v>1080926.864494237</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.347970309134781e-06</v>
+        <v>2.569439444701979e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.66087962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>890407.8081015612</v>
+        <v>977764.7216372885</v>
       </c>
     </row>
     <row r="8">
@@ -10060,28 +10060,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>704.5788175660641</v>
+        <v>775.1610903623673</v>
       </c>
       <c r="AB8" t="n">
-        <v>964.0358220175344</v>
+        <v>1060.609601527547</v>
       </c>
       <c r="AC8" t="n">
-        <v>872.0295961969542</v>
+        <v>959.3865097326817</v>
       </c>
       <c r="AD8" t="n">
-        <v>704578.8175660641</v>
+        <v>775161.0903623673</v>
       </c>
       <c r="AE8" t="n">
-        <v>964035.8220175344</v>
+        <v>1060609.601527547</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.363997524530967e-06</v>
+        <v>2.599989790765704e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.52488425925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>872029.5961969543</v>
+        <v>959386.5097326817</v>
       </c>
     </row>
     <row r="9">
@@ -10166,28 +10166,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>691.9551375874095</v>
+        <v>762.3668181831207</v>
       </c>
       <c r="AB9" t="n">
-        <v>946.7635461532839</v>
+        <v>1043.103913888449</v>
       </c>
       <c r="AC9" t="n">
-        <v>856.4057620993964</v>
+        <v>943.5515403524727</v>
       </c>
       <c r="AD9" t="n">
-        <v>691955.1375874095</v>
+        <v>762366.8181831207</v>
       </c>
       <c r="AE9" t="n">
-        <v>946763.5461532839</v>
+        <v>1043103.913888449</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.376873626391631e-06</v>
+        <v>2.624533628111815e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.41782407407407</v>
       </c>
       <c r="AH9" t="n">
-        <v>856405.7620993964</v>
+        <v>943551.5403524727</v>
       </c>
     </row>
     <row r="10">
@@ -10272,28 +10272,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>679.7236156432883</v>
+        <v>750.1352962389997</v>
       </c>
       <c r="AB10" t="n">
-        <v>930.0278382126736</v>
+        <v>1026.368205947839</v>
       </c>
       <c r="AC10" t="n">
-        <v>841.2672866359242</v>
+        <v>928.4130648890005</v>
       </c>
       <c r="AD10" t="n">
-        <v>679723.6156432884</v>
+        <v>750135.2962389997</v>
       </c>
       <c r="AE10" t="n">
-        <v>930027.8382126736</v>
+        <v>1026368.205947838</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.388228501028251e-06</v>
+        <v>2.646177771594251e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.32523148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>841267.2866359241</v>
+        <v>928413.0648890005</v>
       </c>
     </row>
     <row r="11">
@@ -10378,28 +10378,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>669.4827131791797</v>
+        <v>739.8943937748908</v>
       </c>
       <c r="AB11" t="n">
-        <v>916.0157836645492</v>
+        <v>1012.356151399714</v>
       </c>
       <c r="AC11" t="n">
-        <v>828.5925229078308</v>
+        <v>915.7383011609071</v>
       </c>
       <c r="AD11" t="n">
-        <v>669482.7131791797</v>
+        <v>739894.3937748908</v>
       </c>
       <c r="AE11" t="n">
-        <v>916015.7836645492</v>
+        <v>1012356.151399714</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.396921228022792e-06</v>
+        <v>2.662747450815255e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.25289351851852</v>
       </c>
       <c r="AH11" t="n">
-        <v>828592.5229078308</v>
+        <v>915738.3011609071</v>
       </c>
     </row>
     <row r="12">
@@ -10484,28 +10484,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>661.4851240239234</v>
+        <v>720.3037741960605</v>
       </c>
       <c r="AB12" t="n">
-        <v>905.0731293535956</v>
+        <v>985.5514014148207</v>
       </c>
       <c r="AC12" t="n">
-        <v>818.6942201662029</v>
+        <v>891.4917588938691</v>
       </c>
       <c r="AD12" t="n">
-        <v>661485.1240239234</v>
+        <v>720303.7741960605</v>
       </c>
       <c r="AE12" t="n">
-        <v>905073.1293535957</v>
+        <v>985551.4014148207</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.403277784637551e-06</v>
+        <v>2.674864028745613e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.2037037037037</v>
       </c>
       <c r="AH12" t="n">
-        <v>818694.2201662029</v>
+        <v>891491.7588938691</v>
       </c>
     </row>
     <row r="13">
@@ -10590,28 +10590,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>654.1116463114989</v>
+        <v>712.9302964836361</v>
       </c>
       <c r="AB13" t="n">
-        <v>894.984411852578</v>
+        <v>975.4626839138032</v>
       </c>
       <c r="AC13" t="n">
-        <v>809.5683557038784</v>
+        <v>882.3658944315447</v>
       </c>
       <c r="AD13" t="n">
-        <v>654111.6463114989</v>
+        <v>712930.2964836361</v>
       </c>
       <c r="AE13" t="n">
-        <v>894984.4118525779</v>
+        <v>975462.6839138032</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.407569818591105e-06</v>
+        <v>2.683045307860984e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.16898148148148</v>
       </c>
       <c r="AH13" t="n">
-        <v>809568.3557038784</v>
+        <v>882365.8944315447</v>
       </c>
     </row>
     <row r="14">
@@ -10696,28 +10696,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>647.2692282252955</v>
+        <v>706.0878783974326</v>
       </c>
       <c r="AB14" t="n">
-        <v>885.6223135608531</v>
+        <v>966.100585622078</v>
       </c>
       <c r="AC14" t="n">
-        <v>801.0997629333282</v>
+        <v>873.8973016609943</v>
       </c>
       <c r="AD14" t="n">
-        <v>647269.2282252954</v>
+        <v>706087.8783974326</v>
       </c>
       <c r="AE14" t="n">
-        <v>885622.313560853</v>
+        <v>966100.585622078</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.411264227563785e-06</v>
+        <v>2.69008742152991e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.1400462962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>801099.7629333282</v>
+        <v>873897.3016609943</v>
       </c>
     </row>
     <row r="15">
@@ -10802,28 +10802,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>638.9883230279602</v>
+        <v>697.8069732000973</v>
       </c>
       <c r="AB15" t="n">
-        <v>874.2920137421052</v>
+        <v>954.7702858033301</v>
       </c>
       <c r="AC15" t="n">
-        <v>790.8508110271059</v>
+        <v>863.648349754772</v>
       </c>
       <c r="AD15" t="n">
-        <v>638988.3230279601</v>
+        <v>697806.9732000973</v>
       </c>
       <c r="AE15" t="n">
-        <v>874292.0137421051</v>
+        <v>954770.2858033301</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.416534193304226e-06</v>
+        <v>2.700132789557643e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.09664351851852</v>
       </c>
       <c r="AH15" t="n">
-        <v>790850.8110271059</v>
+        <v>863648.3497547719</v>
       </c>
     </row>
     <row r="16">
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>631.0171521874793</v>
+        <v>689.8358023596165</v>
       </c>
       <c r="AB16" t="n">
-        <v>863.3855061349208</v>
+        <v>943.863778196146</v>
       </c>
       <c r="AC16" t="n">
-        <v>780.9852051985717</v>
+        <v>853.7827439262378</v>
       </c>
       <c r="AD16" t="n">
-        <v>631017.1521874793</v>
+        <v>689835.8023596165</v>
       </c>
       <c r="AE16" t="n">
-        <v>863385.5061349208</v>
+        <v>943863.778196146</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.42109787497636e-06</v>
+        <v>2.70883187114867e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.0619212962963</v>
       </c>
       <c r="AH16" t="n">
-        <v>780985.2051985718</v>
+        <v>853782.7439262378</v>
       </c>
     </row>
     <row r="17">
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>625.6689488247765</v>
+        <v>684.4875989969138</v>
       </c>
       <c r="AB17" t="n">
-        <v>856.0678583479908</v>
+        <v>936.5461304092161</v>
       </c>
       <c r="AC17" t="n">
-        <v>774.3659434460433</v>
+        <v>847.1634821737094</v>
       </c>
       <c r="AD17" t="n">
-        <v>625668.9488247766</v>
+        <v>684487.5989969138</v>
       </c>
       <c r="AE17" t="n">
-        <v>856067.8583479908</v>
+        <v>936546.130409216</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.423271056724996e-06</v>
+        <v>2.712974290953921e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.04456018518519</v>
       </c>
       <c r="AH17" t="n">
-        <v>774365.9434460433</v>
+        <v>847163.4821737094</v>
       </c>
     </row>
     <row r="18">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>621.2213213046341</v>
+        <v>680.0399714767711</v>
       </c>
       <c r="AB18" t="n">
-        <v>849.9824181594539</v>
+        <v>930.4606902206791</v>
       </c>
       <c r="AC18" t="n">
-        <v>768.8612891281311</v>
+        <v>841.6588278557972</v>
       </c>
       <c r="AD18" t="n">
-        <v>621221.3213046341</v>
+        <v>680039.9714767712</v>
       </c>
       <c r="AE18" t="n">
-        <v>849982.4181594539</v>
+        <v>930460.6902206792</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.425281249842483e-06</v>
+        <v>2.716806029273779e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.03009259259259</v>
       </c>
       <c r="AH18" t="n">
-        <v>768861.2891281311</v>
+        <v>841658.8278557973</v>
       </c>
     </row>
     <row r="19">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>622.9375742976654</v>
+        <v>681.7562244698025</v>
       </c>
       <c r="AB19" t="n">
-        <v>852.3306712202576</v>
+        <v>932.8089432814829</v>
       </c>
       <c r="AC19" t="n">
-        <v>770.9854282126059</v>
+        <v>843.7829669402719</v>
       </c>
       <c r="AD19" t="n">
-        <v>622937.5742976654</v>
+        <v>681756.2244698026</v>
       </c>
       <c r="AE19" t="n">
-        <v>852330.6712202576</v>
+        <v>932808.9432814829</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.424737954405324e-06</v>
+        <v>2.715770424322466e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.03298611111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>770985.4282126059</v>
+        <v>843782.9669402719</v>
       </c>
     </row>
   </sheetData>
@@ -11523,28 +11523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>679.1984073416272</v>
+        <v>752.4425047799634</v>
       </c>
       <c r="AB2" t="n">
-        <v>929.3092250437857</v>
+        <v>1029.525030460442</v>
       </c>
       <c r="AC2" t="n">
-        <v>840.6172568992952</v>
+        <v>931.2686065007525</v>
       </c>
       <c r="AD2" t="n">
-        <v>679198.4073416272</v>
+        <v>752442.5047799634</v>
       </c>
       <c r="AE2" t="n">
-        <v>929309.2250437856</v>
+        <v>1029525.030460442</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.270251658674645e-06</v>
+        <v>2.705303604390658e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.81076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>840617.2568992951</v>
+        <v>931268.6065007525</v>
       </c>
     </row>
     <row r="3">
@@ -11629,28 +11629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>545.9880200247914</v>
+        <v>608.6834236259161</v>
       </c>
       <c r="AB3" t="n">
-        <v>747.0448962893682</v>
+        <v>832.8275134224247</v>
       </c>
       <c r="AC3" t="n">
-        <v>675.7479798716073</v>
+        <v>753.3436244221441</v>
       </c>
       <c r="AD3" t="n">
-        <v>545988.0200247914</v>
+        <v>608683.4236259161</v>
       </c>
       <c r="AE3" t="n">
-        <v>747044.8962893683</v>
+        <v>832827.5134224247</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.460428695531532e-06</v>
+        <v>3.110330923007252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.01099537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>675747.9798716073</v>
+        <v>753343.6244221441</v>
       </c>
     </row>
     <row r="4">
@@ -11735,28 +11735,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>493.7360350706171</v>
+        <v>556.3460978171702</v>
       </c>
       <c r="AB4" t="n">
-        <v>675.5514252801834</v>
+        <v>761.217275291042</v>
       </c>
       <c r="AC4" t="n">
-        <v>611.0777453938222</v>
+        <v>688.5677669124203</v>
       </c>
       <c r="AD4" t="n">
-        <v>493736.0350706171</v>
+        <v>556346.0978171702</v>
       </c>
       <c r="AE4" t="n">
-        <v>675551.4252801833</v>
+        <v>761217.2752910421</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.530146130145948e-06</v>
+        <v>3.258810813478749e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.46412037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>611077.7453938222</v>
+        <v>688567.7669124203</v>
       </c>
     </row>
     <row r="5">
@@ -11841,28 +11841,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>469.0634895887151</v>
+        <v>521.3807915532205</v>
       </c>
       <c r="AB5" t="n">
-        <v>641.7933600759592</v>
+        <v>713.3762007002623</v>
       </c>
       <c r="AC5" t="n">
-        <v>580.541502552947</v>
+        <v>645.2925773352146</v>
       </c>
       <c r="AD5" t="n">
-        <v>469063.4895887151</v>
+        <v>521380.7915532206</v>
       </c>
       <c r="AE5" t="n">
-        <v>641793.3600759592</v>
+        <v>713376.2007002623</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.56373174647324e-06</v>
+        <v>3.330339386801539e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.2181712962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>580541.502552947</v>
+        <v>645292.5773352146</v>
       </c>
     </row>
     <row r="6">
@@ -11947,28 +11947,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>454.4296060139476</v>
+        <v>506.7469079784531</v>
       </c>
       <c r="AB6" t="n">
-        <v>621.7706349675832</v>
+        <v>693.3534755918863</v>
       </c>
       <c r="AC6" t="n">
-        <v>562.4297182268433</v>
+        <v>627.1807930091109</v>
       </c>
       <c r="AD6" t="n">
-        <v>454429.6060139476</v>
+        <v>506746.9079784531</v>
       </c>
       <c r="AE6" t="n">
-        <v>621770.6349675832</v>
+        <v>693353.4755918863</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.579857692218835e-06</v>
+        <v>3.364683431032337e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.10243055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>562429.7182268433</v>
+        <v>627180.7930091108</v>
       </c>
     </row>
     <row r="7">
@@ -12053,28 +12053,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>456.875452315023</v>
+        <v>509.1927542795285</v>
       </c>
       <c r="AB7" t="n">
-        <v>625.1171497798381</v>
+        <v>696.6999904041411</v>
       </c>
       <c r="AC7" t="n">
-        <v>565.4568463622795</v>
+        <v>630.2079211445471</v>
       </c>
       <c r="AD7" t="n">
-        <v>456875.4523150231</v>
+        <v>509192.7542795285</v>
       </c>
       <c r="AE7" t="n">
-        <v>625117.149779838</v>
+        <v>696699.9904041411</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.579130205944598e-06</v>
+        <v>3.363134075653505e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.10821759259259</v>
       </c>
       <c r="AH7" t="n">
-        <v>565456.8463622795</v>
+        <v>630207.9211445471</v>
       </c>
     </row>
   </sheetData>
@@ -12350,28 +12350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>915.0101602372271</v>
+        <v>1002.613936406238</v>
       </c>
       <c r="AB2" t="n">
-        <v>1251.957268635857</v>
+        <v>1371.820619996137</v>
       </c>
       <c r="AC2" t="n">
-        <v>1132.472224050312</v>
+        <v>1240.895985386037</v>
       </c>
       <c r="AD2" t="n">
-        <v>915010.1602372271</v>
+        <v>1002613.936406238</v>
       </c>
       <c r="AE2" t="n">
-        <v>1251957.268635856</v>
+        <v>1371820.619996137</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.103275399160107e-06</v>
+        <v>2.240030497532693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.21122685185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>1132472.224050312</v>
+        <v>1240895.985386038</v>
       </c>
     </row>
     <row r="3">
@@ -12456,28 +12456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>677.2300003626766</v>
+        <v>753.9472318315073</v>
       </c>
       <c r="AB3" t="n">
-        <v>926.6159637751983</v>
+        <v>1031.583864396237</v>
       </c>
       <c r="AC3" t="n">
-        <v>838.1810367061659</v>
+        <v>933.1309482153067</v>
       </c>
       <c r="AD3" t="n">
-        <v>677230.0003626766</v>
+        <v>753947.2318315073</v>
       </c>
       <c r="AE3" t="n">
-        <v>926615.9637751983</v>
+        <v>1031583.864396237</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.33027534198262e-06</v>
+        <v>2.700918862529957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.61574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>838181.0367061659</v>
+        <v>933130.9482153067</v>
       </c>
     </row>
     <row r="4">
@@ -12562,28 +12562,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>609.8560420943051</v>
+        <v>686.4879327085642</v>
       </c>
       <c r="AB4" t="n">
-        <v>834.4319417431501</v>
+        <v>939.2830752419912</v>
       </c>
       <c r="AC4" t="n">
-        <v>754.7949283557688</v>
+        <v>849.6392168329706</v>
       </c>
       <c r="AD4" t="n">
-        <v>609856.042094305</v>
+        <v>686487.9327085642</v>
       </c>
       <c r="AE4" t="n">
-        <v>834431.9417431501</v>
+        <v>939283.0752419912</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.411181044649305e-06</v>
+        <v>2.865185410606397e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.89236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>754794.9283557688</v>
+        <v>849639.2168329706</v>
       </c>
     </row>
     <row r="5">
@@ -12668,28 +12668,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>579.7786018842403</v>
+        <v>645.6093781614424</v>
       </c>
       <c r="AB5" t="n">
-        <v>793.2786611247273</v>
+        <v>883.3512334760725</v>
       </c>
       <c r="AC5" t="n">
-        <v>717.5692590805759</v>
+        <v>799.0454315443584</v>
       </c>
       <c r="AD5" t="n">
-        <v>579778.6018842403</v>
+        <v>645609.3781614423</v>
       </c>
       <c r="AE5" t="n">
-        <v>793278.6611247272</v>
+        <v>883351.2334760724</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.453228811268191e-06</v>
+        <v>2.950556914086984e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.54803240740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>717569.2590805759</v>
+        <v>799045.4315443584</v>
       </c>
     </row>
     <row r="6">
@@ -12774,28 +12774,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>558.9014131612646</v>
+        <v>624.5615972378745</v>
       </c>
       <c r="AB6" t="n">
-        <v>764.7135704773888</v>
+        <v>854.5527310538873</v>
       </c>
       <c r="AC6" t="n">
-        <v>691.7303805932631</v>
+        <v>772.9954177743945</v>
       </c>
       <c r="AD6" t="n">
-        <v>558901.4131612646</v>
+        <v>624561.5972378745</v>
       </c>
       <c r="AE6" t="n">
-        <v>764713.5704773888</v>
+        <v>854552.7310538873</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.480313372662701e-06</v>
+        <v>3.005547937708272e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.33680555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>691730.3805932631</v>
+        <v>772995.4177743945</v>
       </c>
     </row>
     <row r="7">
@@ -12880,28 +12880,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>542.1271953775512</v>
+        <v>596.9862651171039</v>
       </c>
       <c r="AB7" t="n">
-        <v>741.762345679452</v>
+        <v>816.8229451084549</v>
       </c>
       <c r="AC7" t="n">
-        <v>670.969588477795</v>
+        <v>738.8665096455069</v>
       </c>
       <c r="AD7" t="n">
-        <v>542127.1953775511</v>
+        <v>596986.2651171039</v>
       </c>
       <c r="AE7" t="n">
-        <v>741762.3456794519</v>
+        <v>816822.9451084549</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.498408411538691e-06</v>
+        <v>3.042287122654401e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.20081018518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>670969.588477795</v>
+        <v>738866.5096455069</v>
       </c>
     </row>
     <row r="8">
@@ -12986,28 +12986,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>528.9267212546155</v>
+        <v>583.7857909941682</v>
       </c>
       <c r="AB8" t="n">
-        <v>723.7008746206342</v>
+        <v>798.7614740496371</v>
       </c>
       <c r="AC8" t="n">
-        <v>654.6318788673969</v>
+        <v>722.5288000351088</v>
       </c>
       <c r="AD8" t="n">
-        <v>528926.7212546155</v>
+        <v>583785.7909941683</v>
       </c>
       <c r="AE8" t="n">
-        <v>723700.8746206341</v>
+        <v>798761.4740496371</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.509659813916711e-06</v>
+        <v>3.065131359447827e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.11689814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>654631.878867397</v>
+        <v>722528.8000351088</v>
       </c>
     </row>
     <row r="9">
@@ -13092,28 +13092,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>516.2300150542425</v>
+        <v>571.0890847937952</v>
       </c>
       <c r="AB9" t="n">
-        <v>706.3286810581388</v>
+        <v>781.3892804871418</v>
       </c>
       <c r="AC9" t="n">
-        <v>638.9176630764794</v>
+        <v>706.8145842441912</v>
       </c>
       <c r="AD9" t="n">
-        <v>516230.0150542425</v>
+        <v>571089.0847937952</v>
       </c>
       <c r="AE9" t="n">
-        <v>706328.6810581388</v>
+        <v>781389.2804871418</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.519925268663666e-06</v>
+        <v>3.08597378167688e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>638917.6630764793</v>
+        <v>706814.5842441912</v>
       </c>
     </row>
     <row r="10">
@@ -13198,28 +13198,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>515.6041802860866</v>
+        <v>570.4632500256395</v>
       </c>
       <c r="AB10" t="n">
-        <v>705.4723863184666</v>
+        <v>780.5329857474696</v>
       </c>
       <c r="AC10" t="n">
-        <v>638.1430919049443</v>
+        <v>706.0400130726562</v>
       </c>
       <c r="AD10" t="n">
-        <v>515604.1802860866</v>
+        <v>570463.2500256394</v>
       </c>
       <c r="AE10" t="n">
-        <v>705472.3863184666</v>
+        <v>780532.9857474696</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.52091121629473e-06</v>
+        <v>3.087975596241252e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.03298611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>638143.0919049443</v>
+        <v>706040.0130726561</v>
       </c>
     </row>
   </sheetData>
@@ -13495,28 +13495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>529.6391546147073</v>
+        <v>599.8792318390902</v>
       </c>
       <c r="AB2" t="n">
-        <v>724.6756573742533</v>
+        <v>820.7812298061605</v>
       </c>
       <c r="AC2" t="n">
-        <v>655.5136297231269</v>
+        <v>742.4470212071509</v>
       </c>
       <c r="AD2" t="n">
-        <v>529639.1546147073</v>
+        <v>599879.2318390901</v>
       </c>
       <c r="AE2" t="n">
-        <v>724675.6573742533</v>
+        <v>820781.2298061604</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.411063248211119e-06</v>
+        <v>3.142162239190271e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91087962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>655513.6297231269</v>
+        <v>742447.0212071509</v>
       </c>
     </row>
     <row r="3">
@@ -13601,28 +13601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>436.0863401117962</v>
+        <v>496.365269893757</v>
       </c>
       <c r="AB3" t="n">
-        <v>596.6725693124819</v>
+        <v>679.1488603588573</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.7269767325084</v>
+        <v>614.3318463176195</v>
       </c>
       <c r="AD3" t="n">
-        <v>436086.3401117962</v>
+        <v>496365.2698937571</v>
       </c>
       <c r="AE3" t="n">
-        <v>596672.5693124819</v>
+        <v>679148.8603588573</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.574641059056351e-06</v>
+        <v>3.506418073263553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.56828703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>539726.9767325084</v>
+        <v>614331.8463176194</v>
       </c>
     </row>
     <row r="4">
@@ -13707,28 +13707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>406.1882838271301</v>
+        <v>466.2966214084989</v>
       </c>
       <c r="AB4" t="n">
-        <v>555.7647296946495</v>
+        <v>638.0076089661782</v>
       </c>
       <c r="AC4" t="n">
-        <v>502.7233239132885</v>
+        <v>577.1170582157486</v>
       </c>
       <c r="AD4" t="n">
-        <v>406188.2838271301</v>
+        <v>466296.621408499</v>
       </c>
       <c r="AE4" t="n">
-        <v>555764.7296946496</v>
+        <v>638007.6089661781</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.622429957605824e-06</v>
+        <v>3.612834616012445e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.22974537037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>502723.3239132885</v>
+        <v>577117.0582157485</v>
       </c>
     </row>
     <row r="5">
@@ -13813,28 +13813,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>408.7499069153344</v>
+        <v>468.8582444967032</v>
       </c>
       <c r="AB5" t="n">
-        <v>559.2696554147653</v>
+        <v>641.512534686294</v>
       </c>
       <c r="AC5" t="n">
-        <v>505.8937444418706</v>
+        <v>580.2874787443305</v>
       </c>
       <c r="AD5" t="n">
-        <v>408749.9069153344</v>
+        <v>468858.2444967031</v>
       </c>
       <c r="AE5" t="n">
-        <v>559269.6554147654</v>
+        <v>641512.5346862939</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.62280773545997e-06</v>
+        <v>3.613675853504531e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.22685185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>505893.7444418706</v>
+        <v>580287.4787443306</v>
       </c>
     </row>
   </sheetData>
@@ -14110,28 +14110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1579.492875490949</v>
+        <v>1686.388037947826</v>
       </c>
       <c r="AB2" t="n">
-        <v>2161.131834554451</v>
+        <v>2307.390511709689</v>
       </c>
       <c r="AC2" t="n">
-        <v>1954.876445432154</v>
+        <v>2087.176399715038</v>
       </c>
       <c r="AD2" t="n">
-        <v>1579492.875490949</v>
+        <v>1686388.037947826</v>
       </c>
       <c r="AE2" t="n">
-        <v>2161131.834554452</v>
+        <v>2307390.511709689</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.166141112309906e-07</v>
+        <v>1.544024292800278e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.0769675925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1954876.445432154</v>
+        <v>2087176.399715038</v>
       </c>
     </row>
     <row r="3">
@@ -14216,28 +14216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1008.954677033115</v>
+        <v>1092.010037980237</v>
       </c>
       <c r="AB3" t="n">
-        <v>1380.496301055564</v>
+        <v>1494.13631004734</v>
       </c>
       <c r="AC3" t="n">
-        <v>1248.743671621548</v>
+        <v>1351.538037649902</v>
       </c>
       <c r="AD3" t="n">
-        <v>1008954.677033115</v>
+        <v>1092010.037980237</v>
       </c>
       <c r="AE3" t="n">
-        <v>1380496.301055564</v>
+        <v>1494136.310047339</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.098312867079909e-06</v>
+        <v>2.076650065855665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.18402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>1248743.671621548</v>
+        <v>1351538.037649902</v>
       </c>
     </row>
     <row r="4">
@@ -14322,28 +14322,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>866.0734211729698</v>
+        <v>949.1286926115412</v>
       </c>
       <c r="AB4" t="n">
-        <v>1184.999863311582</v>
+        <v>1298.639749833809</v>
       </c>
       <c r="AC4" t="n">
-        <v>1071.905139514878</v>
+        <v>1174.699394762006</v>
       </c>
       <c r="AD4" t="n">
-        <v>866073.4211729699</v>
+        <v>949128.6926115411</v>
       </c>
       <c r="AE4" t="n">
-        <v>1184999.863311582</v>
+        <v>1298639.749833809</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.208580269981015e-06</v>
+        <v>2.285139665094471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1071905.139514878</v>
+        <v>1174699.394762006</v>
       </c>
     </row>
     <row r="5">
@@ -14428,28 +14428,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>812.7704497445881</v>
+        <v>883.9485803641186</v>
       </c>
       <c r="AB5" t="n">
-        <v>1112.068386242136</v>
+        <v>1209.457444713279</v>
       </c>
       <c r="AC5" t="n">
-        <v>1005.934140256968</v>
+        <v>1094.028523674028</v>
       </c>
       <c r="AD5" t="n">
-        <v>812770.4497445881</v>
+        <v>883948.5803641186</v>
       </c>
       <c r="AE5" t="n">
-        <v>1112068.386242136</v>
+        <v>1209457.444713279</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.266029156160448e-06</v>
+        <v>2.393761931885392e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.30613425925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>1005934.140256968</v>
+        <v>1094028.523674028</v>
       </c>
     </row>
     <row r="6">
@@ -14534,28 +14534,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>768.7928037124644</v>
+        <v>851.7627342964644</v>
       </c>
       <c r="AB6" t="n">
-        <v>1051.896230784171</v>
+        <v>1165.4193501842</v>
       </c>
       <c r="AC6" t="n">
-        <v>951.5047308637612</v>
+        <v>1054.19336307895</v>
       </c>
       <c r="AD6" t="n">
-        <v>768792.8037124644</v>
+        <v>851762.7342964644</v>
       </c>
       <c r="AE6" t="n">
-        <v>1051896.230784171</v>
+        <v>1165419.3501842</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.302479855263987e-06</v>
+        <v>2.462681589446267e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.96180555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>951504.7308637612</v>
+        <v>1054193.36307895</v>
       </c>
     </row>
     <row r="7">
@@ -14640,28 +14640,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>746.4637763134987</v>
+        <v>817.7271582790499</v>
       </c>
       <c r="AB7" t="n">
-        <v>1021.344670409741</v>
+        <v>1118.850373533533</v>
       </c>
       <c r="AC7" t="n">
-        <v>923.8689685320825</v>
+        <v>1012.068864199854</v>
       </c>
       <c r="AD7" t="n">
-        <v>746463.7763134986</v>
+        <v>817727.1582790499</v>
       </c>
       <c r="AE7" t="n">
-        <v>1021344.670409741</v>
+        <v>1118850.373533533</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.327462313733769e-06</v>
+        <v>2.509917514273809e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.73611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>923868.9685320825</v>
+        <v>1012068.864199854</v>
       </c>
     </row>
     <row r="8">
@@ -14746,28 +14746,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>730.8273534227684</v>
+        <v>802.0907353883194</v>
       </c>
       <c r="AB8" t="n">
-        <v>999.9502267803513</v>
+        <v>1097.455929904144</v>
       </c>
       <c r="AC8" t="n">
-        <v>904.5163805753917</v>
+        <v>992.7162762431633</v>
       </c>
       <c r="AD8" t="n">
-        <v>730827.3534227684</v>
+        <v>802090.7353883195</v>
       </c>
       <c r="AE8" t="n">
-        <v>999950.2267803513</v>
+        <v>1097455.929904144</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.344260863394484e-06</v>
+        <v>2.541679601657846e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>904516.3805753917</v>
+        <v>992716.2762431633</v>
       </c>
     </row>
     <row r="9">
@@ -14852,28 +14852,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>718.5056656905871</v>
+        <v>789.5984554555458</v>
       </c>
       <c r="AB9" t="n">
-        <v>983.091150030683</v>
+        <v>1080.363441379629</v>
       </c>
       <c r="AC9" t="n">
-        <v>889.266310448849</v>
+        <v>977.2550708339696</v>
       </c>
       <c r="AD9" t="n">
-        <v>718505.6656905871</v>
+        <v>789598.4554555458</v>
       </c>
       <c r="AE9" t="n">
-        <v>983091.150030683</v>
+        <v>1080363.441379629</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.35664440961873e-06</v>
+        <v>2.56509396094736e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.484375</v>
       </c>
       <c r="AH9" t="n">
-        <v>889266.310448849</v>
+        <v>977255.0708339696</v>
       </c>
     </row>
     <row r="10">
@@ -14958,28 +14958,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>707.4008050340002</v>
+        <v>778.493594798959</v>
       </c>
       <c r="AB10" t="n">
-        <v>967.896989768465</v>
+        <v>1065.169281117411</v>
       </c>
       <c r="AC10" t="n">
-        <v>875.522259516919</v>
+        <v>963.5110199020397</v>
       </c>
       <c r="AD10" t="n">
-        <v>707400.8050340002</v>
+        <v>778493.594798959</v>
       </c>
       <c r="AE10" t="n">
-        <v>967896.989768465</v>
+        <v>1065169.281117411</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.367089661651354e-06</v>
+        <v>2.584843464000254e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.39467592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>875522.259516919</v>
+        <v>963511.0199020397</v>
       </c>
     </row>
     <row r="11">
@@ -15064,28 +15064,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>696.8471842605949</v>
+        <v>767.9399740255539</v>
       </c>
       <c r="AB11" t="n">
-        <v>953.4570602334035</v>
+        <v>1050.729351582349</v>
       </c>
       <c r="AC11" t="n">
-        <v>862.4604565901153</v>
+        <v>950.449216975236</v>
       </c>
       <c r="AD11" t="n">
-        <v>696847.1842605949</v>
+        <v>767939.9740255539</v>
       </c>
       <c r="AE11" t="n">
-        <v>953457.0602334035</v>
+        <v>1050729.351582349</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.376781132609459e-06</v>
+        <v>2.603167745183353e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.31655092592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>862460.4565901153</v>
+        <v>950449.2169752361</v>
       </c>
     </row>
     <row r="12">
@@ -15170,28 +15170,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>689.0364366424373</v>
+        <v>760.1292264073959</v>
       </c>
       <c r="AB12" t="n">
-        <v>942.7700507563746</v>
+        <v>1040.04234210532</v>
       </c>
       <c r="AC12" t="n">
-        <v>852.7934002982621</v>
+        <v>940.7821606833829</v>
       </c>
       <c r="AD12" t="n">
-        <v>689036.4366424372</v>
+        <v>760129.2264073959</v>
       </c>
       <c r="AE12" t="n">
-        <v>942770.0507563746</v>
+        <v>1040042.34210532</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.382972905721581e-06</v>
+        <v>2.61487492482811e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.26446759259259</v>
       </c>
       <c r="AH12" t="n">
-        <v>852793.4002982621</v>
+        <v>940782.1606833829</v>
       </c>
     </row>
     <row r="13">
@@ -15276,28 +15276,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>680.6481497265731</v>
+        <v>740.0343908730833</v>
       </c>
       <c r="AB13" t="n">
-        <v>931.2928265329888</v>
+        <v>1012.547701605698</v>
       </c>
       <c r="AC13" t="n">
-        <v>842.4115462463708</v>
+        <v>915.9115700840738</v>
       </c>
       <c r="AD13" t="n">
-        <v>680648.1497265731</v>
+        <v>740034.3908730834</v>
       </c>
       <c r="AE13" t="n">
-        <v>931292.8265329888</v>
+        <v>1012547.701605698</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.389703093886932e-06</v>
+        <v>2.627600120094151e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.20949074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>842411.5462463708</v>
+        <v>915911.5700840738</v>
       </c>
     </row>
     <row r="14">
@@ -15382,28 +15382,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>673.6043268972026</v>
+        <v>732.9905680437129</v>
       </c>
       <c r="AB14" t="n">
-        <v>921.6551573863125</v>
+        <v>1002.910032459021</v>
       </c>
       <c r="AC14" t="n">
-        <v>833.6936827164998</v>
+        <v>907.1937065542028</v>
       </c>
       <c r="AD14" t="n">
-        <v>673604.3268972025</v>
+        <v>732990.5680437129</v>
       </c>
       <c r="AE14" t="n">
-        <v>921655.1573863125</v>
+        <v>1002910.032459021</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.393741206786143e-06</v>
+        <v>2.635235237253775e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.17766203703704</v>
       </c>
       <c r="AH14" t="n">
-        <v>833693.6827164998</v>
+        <v>907193.7065542028</v>
       </c>
     </row>
     <row r="15">
@@ -15488,28 +15488,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>665.8465409347112</v>
+        <v>725.2327820812214</v>
       </c>
       <c r="AB15" t="n">
-        <v>911.04061238307</v>
+        <v>992.2954874557788</v>
       </c>
       <c r="AC15" t="n">
-        <v>824.0921749907592</v>
+        <v>897.5921988284623</v>
       </c>
       <c r="AD15" t="n">
-        <v>665846.5409347112</v>
+        <v>725232.7820812215</v>
       </c>
       <c r="AE15" t="n">
-        <v>911040.6123830699</v>
+        <v>992295.4874557788</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.398909991297132e-06</v>
+        <v>2.645008187218094e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.13715277777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>824092.1749907592</v>
+        <v>897592.1988284623</v>
       </c>
     </row>
     <row r="16">
@@ -15594,28 +15594,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>657.7085598464929</v>
+        <v>717.0948009930032</v>
       </c>
       <c r="AB16" t="n">
-        <v>899.9058676357823</v>
+        <v>981.1607427084914</v>
       </c>
       <c r="AC16" t="n">
-        <v>814.0201146544405</v>
+        <v>887.5201384921435</v>
       </c>
       <c r="AD16" t="n">
-        <v>657708.5598464929</v>
+        <v>717094.8009930032</v>
       </c>
       <c r="AE16" t="n">
-        <v>899905.8676357823</v>
+        <v>981160.7427084914</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.403648043765539e-06</v>
+        <v>2.653966724685386e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.09953703703704</v>
       </c>
       <c r="AH16" t="n">
-        <v>814020.1146544404</v>
+        <v>887520.1384921435</v>
       </c>
     </row>
     <row r="17">
@@ -15700,28 +15700,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>652.3358583506754</v>
+        <v>711.7220994971856</v>
       </c>
       <c r="AB17" t="n">
-        <v>892.5547004223433</v>
+        <v>973.8095754950524</v>
       </c>
       <c r="AC17" t="n">
-        <v>807.3705325224242</v>
+        <v>880.8705563601271</v>
       </c>
       <c r="AD17" t="n">
-        <v>652335.8583506754</v>
+        <v>711722.0994971856</v>
       </c>
       <c r="AE17" t="n">
-        <v>892554.7004223433</v>
+        <v>973809.5754950524</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.405424813441192e-06</v>
+        <v>2.657326176235621e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.08506944444444</v>
       </c>
       <c r="AH17" t="n">
-        <v>807370.5325224242</v>
+        <v>880870.5563601272</v>
       </c>
     </row>
     <row r="18">
@@ -15806,28 +15806,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>646.259026403199</v>
+        <v>705.645267549709</v>
       </c>
       <c r="AB18" t="n">
-        <v>884.2401108609014</v>
+        <v>965.4949859336102</v>
       </c>
       <c r="AC18" t="n">
-        <v>799.8494757191264</v>
+        <v>873.3494995568292</v>
       </c>
       <c r="AD18" t="n">
-        <v>646259.0264031989</v>
+        <v>705645.2675497091</v>
       </c>
       <c r="AE18" t="n">
-        <v>884240.1108609014</v>
+        <v>965494.9859336102</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.407201583116844e-06</v>
+        <v>2.660685627785856e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.07060185185185</v>
       </c>
       <c r="AH18" t="n">
-        <v>799849.4757191264</v>
+        <v>873349.4995568292</v>
       </c>
     </row>
     <row r="19">
@@ -15912,28 +15912,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>638.9042823988776</v>
+        <v>698.2905235453881</v>
       </c>
       <c r="AB19" t="n">
-        <v>874.1770256457834</v>
+        <v>955.4319007184924</v>
       </c>
       <c r="AC19" t="n">
-        <v>790.7467972333105</v>
+        <v>864.2468210710135</v>
       </c>
       <c r="AD19" t="n">
-        <v>638904.2823988777</v>
+        <v>698290.523545388</v>
       </c>
       <c r="AE19" t="n">
-        <v>874177.0256457834</v>
+        <v>955431.9007184925</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.409732133867016e-06</v>
+        <v>2.665470301205887e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.05034722222222</v>
       </c>
       <c r="AH19" t="n">
-        <v>790746.7972333105</v>
+        <v>864246.8210710136</v>
       </c>
     </row>
     <row r="20">
@@ -16018,28 +16018,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>638.9186223291424</v>
+        <v>698.3048634756527</v>
       </c>
       <c r="AB20" t="n">
-        <v>874.196646171005</v>
+        <v>955.4515212437138</v>
       </c>
       <c r="AC20" t="n">
-        <v>790.7645452031425</v>
+        <v>864.2645690408453</v>
       </c>
       <c r="AD20" t="n">
-        <v>638918.6223291424</v>
+        <v>698304.8634756528</v>
       </c>
       <c r="AE20" t="n">
-        <v>874196.646171005</v>
+        <v>955451.5212437138</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.411724269563959e-06</v>
+        <v>2.669236959004635e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.03587962962963</v>
       </c>
       <c r="AH20" t="n">
-        <v>790764.5452031425</v>
+        <v>864264.5690408454</v>
       </c>
     </row>
     <row r="21">
@@ -16124,28 +16124,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>641.193367178751</v>
+        <v>700.5796083252612</v>
       </c>
       <c r="AB21" t="n">
-        <v>877.3090524288996</v>
+        <v>958.5639275016084</v>
       </c>
       <c r="AC21" t="n">
-        <v>793.5799077760732</v>
+        <v>867.0799316137761</v>
       </c>
       <c r="AD21" t="n">
-        <v>641193.367178751</v>
+        <v>700579.6083252613</v>
       </c>
       <c r="AE21" t="n">
-        <v>877309.0524288996</v>
+        <v>958563.9275016084</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.411562745047991e-06</v>
+        <v>2.66893155431825e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.03587962962963</v>
       </c>
       <c r="AH21" t="n">
-        <v>793579.9077760732</v>
+        <v>867079.9316137761</v>
       </c>
     </row>
   </sheetData>
@@ -16421,28 +16421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.4312578472086</v>
+        <v>514.1435404099807</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.141139195611</v>
+        <v>703.4738744010948</v>
       </c>
       <c r="AC2" t="n">
-        <v>563.669423454863</v>
+        <v>636.3353151600375</v>
       </c>
       <c r="AD2" t="n">
-        <v>455431.2578472086</v>
+        <v>514143.5404099807</v>
       </c>
       <c r="AE2" t="n">
-        <v>623141.139195611</v>
+        <v>703473.8744010949</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.500050614650282e-06</v>
+        <v>3.438966159740697e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.42766203703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>563669.423454863</v>
+        <v>636335.3151600375</v>
       </c>
     </row>
     <row r="3">
@@ -16527,28 +16527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>379.3987744032797</v>
+        <v>438.0257161114801</v>
       </c>
       <c r="AB3" t="n">
-        <v>519.1101410311937</v>
+        <v>599.3261091144801</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.5669977468348</v>
+        <v>542.1272664200706</v>
       </c>
       <c r="AD3" t="n">
-        <v>379398.7744032797</v>
+        <v>438025.71611148</v>
       </c>
       <c r="AE3" t="n">
-        <v>519110.1410311938</v>
+        <v>599326.1091144801</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.639810485061643e-06</v>
+        <v>3.759374991376332e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.37152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>469566.9977468348</v>
+        <v>542127.2664200705</v>
       </c>
     </row>
     <row r="4">
@@ -16633,28 +16633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>379.3714428825993</v>
+        <v>437.9983845907998</v>
       </c>
       <c r="AB4" t="n">
-        <v>519.0727448388174</v>
+        <v>599.2887129221036</v>
       </c>
       <c r="AC4" t="n">
-        <v>469.5331705945728</v>
+        <v>542.0934392678085</v>
       </c>
       <c r="AD4" t="n">
-        <v>379371.4428825993</v>
+        <v>437998.3845907998</v>
       </c>
       <c r="AE4" t="n">
-        <v>519072.7448388174</v>
+        <v>599288.7129221036</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.645674084972862e-06</v>
+        <v>3.772817685557449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>469533.1705945728</v>
+        <v>542093.4392678086</v>
       </c>
     </row>
   </sheetData>
@@ -16930,28 +16930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1166.309745593162</v>
+        <v>1268.782020738503</v>
       </c>
       <c r="AB2" t="n">
-        <v>1595.796447875102</v>
+        <v>1736.003535486678</v>
       </c>
       <c r="AC2" t="n">
-        <v>1443.495874604282</v>
+        <v>1570.321794556093</v>
       </c>
       <c r="AD2" t="n">
-        <v>1166309.745593162</v>
+        <v>1268782.020738502</v>
       </c>
       <c r="AE2" t="n">
-        <v>1595796.447875102</v>
+        <v>1736003.535486678</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.665421719972006e-07</v>
+        <v>1.894409299565313e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.75925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1443495.874604282</v>
+        <v>1570321.794556093</v>
       </c>
     </row>
     <row r="3">
@@ -17036,28 +17036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>816.9225238492394</v>
+        <v>896.5189663152461</v>
       </c>
       <c r="AB3" t="n">
-        <v>1117.749437208701</v>
+        <v>1226.656801337901</v>
       </c>
       <c r="AC3" t="n">
-        <v>1011.07299969269</v>
+        <v>1109.586397841844</v>
       </c>
       <c r="AD3" t="n">
-        <v>816922.5238492393</v>
+        <v>896518.9663152461</v>
       </c>
       <c r="AE3" t="n">
-        <v>1117749.437208701</v>
+        <v>1226656.801337901</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.22235370416997e-06</v>
+        <v>2.395796367325403e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.2494212962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1011072.99969269</v>
+        <v>1109586.397841844</v>
       </c>
     </row>
     <row r="4">
@@ -17142,28 +17142,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>725.8795132753481</v>
+        <v>794.1660059292694</v>
       </c>
       <c r="AB4" t="n">
-        <v>993.1803736073493</v>
+        <v>1086.612965443883</v>
       </c>
       <c r="AC4" t="n">
-        <v>898.3926326876723</v>
+        <v>982.9081490927931</v>
       </c>
       <c r="AD4" t="n">
-        <v>725879.5132753481</v>
+        <v>794166.0059292695</v>
       </c>
       <c r="AE4" t="n">
-        <v>993180.3736073493</v>
+        <v>1086612.965443883</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.317289450026648e-06</v>
+        <v>2.581869117198732e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.29456018518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>898392.6326876723</v>
+        <v>982908.1490927931</v>
       </c>
     </row>
     <row r="5">
@@ -17248,28 +17248,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>676.2762785181037</v>
+        <v>744.6480225180458</v>
       </c>
       <c r="AB5" t="n">
-        <v>925.3110394722156</v>
+        <v>1018.860275961398</v>
       </c>
       <c r="AC5" t="n">
-        <v>837.0006525471872</v>
+        <v>921.62168120302</v>
       </c>
       <c r="AD5" t="n">
-        <v>676276.2785181038</v>
+        <v>744648.0225180457</v>
       </c>
       <c r="AE5" t="n">
-        <v>925311.0394722156</v>
+        <v>1018860.275961398</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.366324658381866e-06</v>
+        <v>2.677977447911607e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.85474537037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>837000.6525471872</v>
+        <v>921621.68120302</v>
       </c>
     </row>
     <row r="6">
@@ -17354,28 +17354,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>651.5645353529353</v>
+        <v>719.9362793528771</v>
       </c>
       <c r="AB6" t="n">
-        <v>891.4993422684663</v>
+        <v>985.048578757649</v>
       </c>
       <c r="AC6" t="n">
-        <v>806.4158962695487</v>
+        <v>891.0369249253818</v>
       </c>
       <c r="AD6" t="n">
-        <v>651564.5353529353</v>
+        <v>719936.2793528772</v>
       </c>
       <c r="AE6" t="n">
-        <v>891499.3422684663</v>
+        <v>985048.5787576491</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.397279533062728e-06</v>
+        <v>2.738648574491767e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.59143518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>806415.8962695487</v>
+        <v>891036.9249253818</v>
       </c>
     </row>
     <row r="7">
@@ -17460,28 +17460,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>634.9783515640352</v>
+        <v>703.1795033633852</v>
       </c>
       <c r="AB7" t="n">
-        <v>868.8053938777074</v>
+        <v>962.1212185920433</v>
       </c>
       <c r="AC7" t="n">
-        <v>785.8878264620472</v>
+        <v>870.2977198352291</v>
       </c>
       <c r="AD7" t="n">
-        <v>634978.3515640352</v>
+        <v>703179.5033633851</v>
       </c>
       <c r="AE7" t="n">
-        <v>868805.3938777074</v>
+        <v>962121.2185920433</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416535368307243e-06</v>
+        <v>2.776389745456641e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.43518518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>785887.8264620472</v>
+        <v>870297.7198352291</v>
       </c>
     </row>
     <row r="8">
@@ -17566,28 +17566,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>621.0457592514225</v>
+        <v>689.2469110507723</v>
       </c>
       <c r="AB8" t="n">
-        <v>849.7422064129987</v>
+        <v>943.0580311273343</v>
       </c>
       <c r="AC8" t="n">
-        <v>768.6440028536184</v>
+        <v>853.0538962268005</v>
       </c>
       <c r="AD8" t="n">
-        <v>621045.7592514225</v>
+        <v>689246.9110507723</v>
       </c>
       <c r="AE8" t="n">
-        <v>849742.2064129987</v>
+        <v>943058.0311273343</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.430977244740629e-06</v>
+        <v>2.804695623680296e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.31944444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>768644.0028536185</v>
+        <v>853053.8962268005</v>
       </c>
     </row>
     <row r="9">
@@ -17672,28 +17672,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>608.2765354385436</v>
+        <v>676.4776872378935</v>
       </c>
       <c r="AB9" t="n">
-        <v>832.2707910538215</v>
+        <v>925.5866157681572</v>
       </c>
       <c r="AC9" t="n">
-        <v>752.8400348550358</v>
+        <v>837.2499282282178</v>
       </c>
       <c r="AD9" t="n">
-        <v>608276.5354385437</v>
+        <v>676477.6872378935</v>
       </c>
       <c r="AE9" t="n">
-        <v>832270.7910538216</v>
+        <v>925586.6157681572</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.443124094298942e-06</v>
+        <v>2.828503280945928e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>752840.0348550358</v>
+        <v>837249.9282282178</v>
       </c>
     </row>
     <row r="10">
@@ -17778,28 +17778,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>597.4317267733533</v>
+        <v>654.4082696151893</v>
       </c>
       <c r="AB10" t="n">
-        <v>817.4324453989165</v>
+        <v>895.3902649427838</v>
       </c>
       <c r="AC10" t="n">
-        <v>739.417840083686</v>
+        <v>809.9354747447733</v>
       </c>
       <c r="AD10" t="n">
-        <v>597431.7267733533</v>
+        <v>654408.2696151893</v>
       </c>
       <c r="AE10" t="n">
-        <v>817432.4453989165</v>
+        <v>895390.2649427837</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.452080296738251e-06</v>
+        <v>2.846057313952846e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.15451388888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>739417.8400836859</v>
+        <v>809935.4747447732</v>
       </c>
     </row>
     <row r="11">
@@ -17884,28 +17884,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>588.4033348813518</v>
+        <v>645.3798777231877</v>
       </c>
       <c r="AB11" t="n">
-        <v>805.0794013077407</v>
+        <v>883.037220851608</v>
       </c>
       <c r="AC11" t="n">
-        <v>728.2437531829657</v>
+        <v>798.761387844053</v>
       </c>
       <c r="AD11" t="n">
-        <v>588403.3348813518</v>
+        <v>645379.8777231878</v>
       </c>
       <c r="AE11" t="n">
-        <v>805079.4013077407</v>
+        <v>883037.220851608</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.458573543506751e-06</v>
+        <v>2.858783987882861e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.10532407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>728243.7531829658</v>
+        <v>798761.3878440531</v>
       </c>
     </row>
     <row r="12">
@@ -17990,28 +17990,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>578.763106873123</v>
+        <v>635.739649714959</v>
       </c>
       <c r="AB12" t="n">
-        <v>791.8892160500384</v>
+        <v>869.8470355939055</v>
       </c>
       <c r="AC12" t="n">
-        <v>716.3124206937169</v>
+        <v>786.8300553548042</v>
       </c>
       <c r="AD12" t="n">
-        <v>578763.106873123</v>
+        <v>635739.649714959</v>
       </c>
       <c r="AE12" t="n">
-        <v>791889.2160500383</v>
+        <v>869847.0355939055</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.46389128870509e-06</v>
+        <v>2.869206694980719e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.06481481481482</v>
       </c>
       <c r="AH12" t="n">
-        <v>716312.420693717</v>
+        <v>786830.0553548043</v>
       </c>
     </row>
     <row r="13">
@@ -18096,28 +18096,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>570.0264204280144</v>
+        <v>627.0029632698504</v>
       </c>
       <c r="AB13" t="n">
-        <v>779.9352962204376</v>
+        <v>857.8931157643046</v>
       </c>
       <c r="AC13" t="n">
-        <v>705.4993661952215</v>
+        <v>776.017000856309</v>
       </c>
       <c r="AD13" t="n">
-        <v>570026.4204280144</v>
+        <v>627002.9632698504</v>
       </c>
       <c r="AE13" t="n">
-        <v>779935.2962204376</v>
+        <v>857893.1157643046</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.46881720004671e-06</v>
+        <v>2.878861413134523e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.02719907407407</v>
       </c>
       <c r="AH13" t="n">
-        <v>705499.3661952214</v>
+        <v>776017.000856309</v>
       </c>
     </row>
     <row r="14">
@@ -18202,28 +18202,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>568.3059728105547</v>
+        <v>625.2825156523908</v>
       </c>
       <c r="AB14" t="n">
-        <v>777.5813038894371</v>
+        <v>855.5391234333042</v>
       </c>
       <c r="AC14" t="n">
-        <v>703.3700355884428</v>
+        <v>773.8876702495301</v>
       </c>
       <c r="AD14" t="n">
-        <v>568305.9728105548</v>
+        <v>625282.5156523908</v>
       </c>
       <c r="AE14" t="n">
-        <v>777581.3038894371</v>
+        <v>855539.1234333043</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.470384535473589e-06</v>
+        <v>2.881933368910734e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.015625</v>
       </c>
       <c r="AH14" t="n">
-        <v>703370.0355884428</v>
+        <v>773887.6702495301</v>
       </c>
     </row>
   </sheetData>
@@ -18499,28 +18499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1356.442382116257</v>
+        <v>1472.730473067159</v>
       </c>
       <c r="AB2" t="n">
-        <v>1855.944309225924</v>
+        <v>2015.054805533445</v>
       </c>
       <c r="AC2" t="n">
-        <v>1678.815589187599</v>
+        <v>1822.740803040515</v>
       </c>
       <c r="AD2" t="n">
-        <v>1356442.382116257</v>
+        <v>1472730.473067159</v>
       </c>
       <c r="AE2" t="n">
-        <v>1855944.309225924</v>
+        <v>2015054.805533445</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.878952213786512e-07</v>
+        <v>1.707158877961099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.87326388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>1678815.589187599</v>
+        <v>1822740.803040515</v>
       </c>
     </row>
     <row r="3">
@@ -18605,28 +18605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>905.7406322394846</v>
+        <v>987.2617731015165</v>
       </c>
       <c r="AB3" t="n">
-        <v>1239.274291486631</v>
+        <v>1350.815112872973</v>
       </c>
       <c r="AC3" t="n">
-        <v>1120.999692439539</v>
+        <v>1221.895214381294</v>
       </c>
       <c r="AD3" t="n">
-        <v>905740.6322394846</v>
+        <v>987261.7731015165</v>
       </c>
       <c r="AE3" t="n">
-        <v>1239274.291486631</v>
+        <v>1350815.112872973</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.157406439974901e-06</v>
+        <v>2.225348928384278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.71238425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1120999.692439539</v>
+        <v>1221895.214381294</v>
       </c>
     </row>
     <row r="4">
@@ -18711,28 +18711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>795.6999264972127</v>
+        <v>877.1357265046731</v>
       </c>
       <c r="AB4" t="n">
-        <v>1088.711743236742</v>
+        <v>1200.135797500886</v>
       </c>
       <c r="AC4" t="n">
-        <v>984.8066224787552</v>
+        <v>1085.596521388572</v>
       </c>
       <c r="AD4" t="n">
-        <v>795699.9264972127</v>
+        <v>877135.7265046731</v>
       </c>
       <c r="AE4" t="n">
-        <v>1088711.743236742</v>
+        <v>1200135.797500886</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.26051614509516e-06</v>
+        <v>2.423598276124525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.58969907407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>984806.6224787552</v>
+        <v>1085596.521388572</v>
       </c>
     </row>
     <row r="5">
@@ -18817,28 +18817,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>750.2421651828197</v>
+        <v>820.0321774328265</v>
       </c>
       <c r="AB5" t="n">
-        <v>1026.514428751498</v>
+        <v>1122.004202429999</v>
       </c>
       <c r="AC5" t="n">
-        <v>928.5453323935037</v>
+        <v>1014.921696092868</v>
       </c>
       <c r="AD5" t="n">
-        <v>750242.1651828197</v>
+        <v>820032.1774328265</v>
       </c>
       <c r="AE5" t="n">
-        <v>1026514.428751498</v>
+        <v>1122004.202429999</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.314484203519806e-06</v>
+        <v>2.527362828346017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.07175925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>928545.3323935037</v>
+        <v>1014921.696092868</v>
       </c>
     </row>
     <row r="6">
@@ -18923,28 +18923,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>711.4410761103908</v>
+        <v>781.3163397064183</v>
       </c>
       <c r="AB6" t="n">
-        <v>973.4250668993628</v>
+        <v>1069.031485230513</v>
       </c>
       <c r="AC6" t="n">
-        <v>880.5227447251489</v>
+        <v>967.0046206752249</v>
       </c>
       <c r="AD6" t="n">
-        <v>711441.0761103908</v>
+        <v>781316.3397064182</v>
       </c>
       <c r="AE6" t="n">
-        <v>973425.0668993628</v>
+        <v>1069031.485230513</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.347007637102951e-06</v>
+        <v>2.589895734308765e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.78240740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>880522.7447251489</v>
+        <v>967004.6206752249</v>
       </c>
     </row>
     <row r="7">
@@ -19029,28 +19029,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>692.4161740275904</v>
+        <v>762.2914376236179</v>
       </c>
       <c r="AB7" t="n">
-        <v>947.3943565502316</v>
+        <v>1043.000774881382</v>
       </c>
       <c r="AC7" t="n">
-        <v>856.9763688374073</v>
+        <v>943.4582447874835</v>
       </c>
       <c r="AD7" t="n">
-        <v>692416.1740275904</v>
+        <v>762291.4376236178</v>
       </c>
       <c r="AE7" t="n">
-        <v>947394.3565502316</v>
+        <v>1043000.774881382</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.368891026647091e-06</v>
+        <v>2.631970994813211e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5943287037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>856976.3688374073</v>
+        <v>943458.2447874835</v>
       </c>
     </row>
     <row r="8">
@@ -19135,28 +19135,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>676.2635671438233</v>
+        <v>745.9682385392584</v>
       </c>
       <c r="AB8" t="n">
-        <v>925.2936472091386</v>
+        <v>1020.666653765442</v>
       </c>
       <c r="AC8" t="n">
-        <v>836.9849201772879</v>
+        <v>923.2556608447128</v>
       </c>
       <c r="AD8" t="n">
-        <v>676263.5671438233</v>
+        <v>745968.2385392585</v>
       </c>
       <c r="AE8" t="n">
-        <v>925293.6472091386</v>
+        <v>1020666.653765442</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.386551305928327e-06</v>
+        <v>2.665926468202764e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.44675925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>836984.9201772879</v>
+        <v>923255.6608447128</v>
       </c>
     </row>
     <row r="9">
@@ -19241,28 +19241,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>664.6365313215766</v>
+        <v>734.3412027170119</v>
       </c>
       <c r="AB9" t="n">
-        <v>909.3850238485225</v>
+        <v>1004.758030404825</v>
       </c>
       <c r="AC9" t="n">
-        <v>822.5945935023158</v>
+        <v>908.8653341697407</v>
       </c>
       <c r="AD9" t="n">
-        <v>664636.5313215767</v>
+        <v>734341.2027170119</v>
       </c>
       <c r="AE9" t="n">
-        <v>909385.0238485225</v>
+        <v>1004758.030404825</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.39845279848742e-06</v>
+        <v>2.688809504617463e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.34837962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>822594.5935023158</v>
+        <v>908865.3341697407</v>
       </c>
     </row>
     <row r="10">
@@ -19347,28 +19347,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>654.0405186725172</v>
+        <v>723.7451900679526</v>
       </c>
       <c r="AB10" t="n">
-        <v>894.8870918789933</v>
+        <v>990.2600984352962</v>
       </c>
       <c r="AC10" t="n">
-        <v>809.4803238119831</v>
+        <v>895.7510644794082</v>
       </c>
       <c r="AD10" t="n">
-        <v>654040.5186725173</v>
+        <v>723745.1900679526</v>
       </c>
       <c r="AE10" t="n">
-        <v>894887.0918789932</v>
+        <v>990260.0984352962</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.407118401364548e-06</v>
+        <v>2.7054708859701e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.27893518518519</v>
       </c>
       <c r="AH10" t="n">
-        <v>809480.3238119831</v>
+        <v>895751.0644794082</v>
       </c>
     </row>
     <row r="11">
@@ -19453,28 +19453,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>644.1052477191898</v>
+        <v>702.3347235577637</v>
       </c>
       <c r="AB11" t="n">
-        <v>881.2932158474307</v>
+        <v>960.9653535929375</v>
       </c>
       <c r="AC11" t="n">
-        <v>797.1838282297481</v>
+        <v>869.2521689693714</v>
       </c>
       <c r="AD11" t="n">
-        <v>644105.2477191899</v>
+        <v>702334.7235577637</v>
       </c>
       <c r="AE11" t="n">
-        <v>881293.2158474308</v>
+        <v>960965.3535929375</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.415454930714697e-06</v>
+        <v>2.721499556638461e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.21238425925926</v>
       </c>
       <c r="AH11" t="n">
-        <v>797183.8282297481</v>
+        <v>869252.1689693714</v>
       </c>
     </row>
     <row r="12">
@@ -19559,28 +19559,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>635.3803613422899</v>
+        <v>693.6098371808638</v>
       </c>
       <c r="AB12" t="n">
-        <v>869.3554413917356</v>
+        <v>949.0275791372421</v>
       </c>
       <c r="AC12" t="n">
-        <v>786.3853782133327</v>
+        <v>858.4537189529559</v>
       </c>
       <c r="AD12" t="n">
-        <v>635380.36134229</v>
+        <v>693609.8371808638</v>
       </c>
       <c r="AE12" t="n">
-        <v>869355.4413917356</v>
+        <v>949027.5791372422</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.422420320369098e-06</v>
+        <v>2.734891932789e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.15740740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>786385.3782133327</v>
+        <v>858453.7189529559</v>
       </c>
     </row>
     <row r="13">
@@ -19665,28 +19665,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>627.2247271069309</v>
+        <v>685.4542029455048</v>
       </c>
       <c r="AB13" t="n">
-        <v>858.1965428297282</v>
+        <v>937.8686805752349</v>
       </c>
       <c r="AC13" t="n">
-        <v>776.291469268471</v>
+        <v>848.3598100080942</v>
       </c>
       <c r="AD13" t="n">
-        <v>627224.7271069309</v>
+        <v>685454.2029455048</v>
       </c>
       <c r="AE13" t="n">
-        <v>858196.5428297282</v>
+        <v>937868.6805752348</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.426533739456342e-06</v>
+        <v>2.742800816342467e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.1255787037037</v>
       </c>
       <c r="AH13" t="n">
-        <v>776291.469268471</v>
+        <v>848359.8100080942</v>
       </c>
     </row>
     <row r="14">
@@ -19771,28 +19771,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>618.4764978950424</v>
+        <v>676.7059737336162</v>
       </c>
       <c r="AB14" t="n">
-        <v>846.2268296773881</v>
+        <v>925.8989674228948</v>
       </c>
       <c r="AC14" t="n">
-        <v>765.4641287397922</v>
+        <v>837.5324694794156</v>
       </c>
       <c r="AD14" t="n">
-        <v>618476.4978950424</v>
+        <v>676705.9737336163</v>
       </c>
       <c r="AE14" t="n">
-        <v>846226.8296773881</v>
+        <v>925898.9674228948</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.430702004131416e-06</v>
+        <v>2.750815151676647e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.09085648148148</v>
       </c>
       <c r="AH14" t="n">
-        <v>765464.1287397922</v>
+        <v>837532.4694794156</v>
       </c>
     </row>
     <row r="15">
@@ -19877,28 +19877,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>611.1495528106882</v>
+        <v>669.3790286492621</v>
       </c>
       <c r="AB15" t="n">
-        <v>836.2017801709708</v>
+        <v>915.8739179164776</v>
       </c>
       <c r="AC15" t="n">
-        <v>756.395855888022</v>
+        <v>828.4641966276453</v>
       </c>
       <c r="AD15" t="n">
-        <v>611149.5528106882</v>
+        <v>669379.028649262</v>
       </c>
       <c r="AE15" t="n">
-        <v>836201.7801709708</v>
+        <v>915873.9179164775</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.435692952623939e-06</v>
+        <v>2.760411263721521e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH15" t="n">
-        <v>756395.855888022</v>
+        <v>828464.1966276453</v>
       </c>
     </row>
     <row r="16">
@@ -19983,28 +19983,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>603.7551581129661</v>
+        <v>661.98463395154</v>
       </c>
       <c r="AB16" t="n">
-        <v>826.0844431278766</v>
+        <v>905.7565808733834</v>
       </c>
       <c r="AC16" t="n">
-        <v>747.2441032925492</v>
+        <v>819.3124440321725</v>
       </c>
       <c r="AD16" t="n">
-        <v>603755.1581129661</v>
+        <v>661984.63395154</v>
       </c>
       <c r="AE16" t="n">
-        <v>826084.4431278766</v>
+        <v>905756.5808733834</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.439641834947694e-06</v>
+        <v>2.768003791932849e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.02430555555556</v>
       </c>
       <c r="AH16" t="n">
-        <v>747244.1032925491</v>
+        <v>819312.4440321724</v>
       </c>
     </row>
     <row r="17">
@@ -20089,28 +20089,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>605.2114617419969</v>
+        <v>663.4409375805708</v>
       </c>
       <c r="AB17" t="n">
-        <v>828.0770220006983</v>
+        <v>907.7491597462051</v>
       </c>
       <c r="AC17" t="n">
-        <v>749.0465132343508</v>
+        <v>821.114853973974</v>
       </c>
       <c r="AD17" t="n">
-        <v>605211.4617419969</v>
+        <v>663440.9375805708</v>
       </c>
       <c r="AE17" t="n">
-        <v>828077.0220006984</v>
+        <v>907749.1597462051</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.438599768778925e-06</v>
+        <v>2.766000208099304e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.03009259259259</v>
       </c>
       <c r="AH17" t="n">
-        <v>749046.5132343507</v>
+        <v>821114.853973974</v>
       </c>
     </row>
   </sheetData>
@@ -20386,28 +20386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1824.484574793769</v>
+        <v>1945.327877841444</v>
       </c>
       <c r="AB2" t="n">
-        <v>2496.340285811535</v>
+        <v>2661.683424271635</v>
       </c>
       <c r="AC2" t="n">
-        <v>2258.093072569277</v>
+        <v>2407.656093955297</v>
       </c>
       <c r="AD2" t="n">
-        <v>1824484.574793769</v>
+        <v>1945327.877841444</v>
       </c>
       <c r="AE2" t="n">
-        <v>2496340.285811535</v>
+        <v>2661683.424271634</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.495523677978314e-07</v>
+        <v>1.396359210340485e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.43692129629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>2258093.072569277</v>
+        <v>2407656.093955297</v>
       </c>
     </row>
     <row r="3">
@@ -20492,28 +20492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1101.565239172522</v>
+        <v>1198.222741832906</v>
       </c>
       <c r="AB3" t="n">
-        <v>1507.210157864349</v>
+        <v>1639.46121723235</v>
       </c>
       <c r="AC3" t="n">
-        <v>1363.364135780517</v>
+        <v>1482.993339657964</v>
       </c>
       <c r="AD3" t="n">
-        <v>1101565.239172522</v>
+        <v>1198222.741832906</v>
       </c>
       <c r="AE3" t="n">
-        <v>1507210.157864349</v>
+        <v>1639461.21723235</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045265308437614e-06</v>
+        <v>1.947249989983253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.6556712962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>1363364.135780517</v>
+        <v>1482993.339657964</v>
       </c>
     </row>
     <row r="4">
@@ -20598,28 +20598,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>949.1981836588301</v>
+        <v>1033.677579533825</v>
       </c>
       <c r="AB4" t="n">
-        <v>1298.734830550439</v>
+        <v>1414.323266954516</v>
       </c>
       <c r="AC4" t="n">
-        <v>1174.785401108487</v>
+        <v>1279.342239371549</v>
       </c>
       <c r="AD4" t="n">
-        <v>949198.1836588301</v>
+        <v>1033677.579533825</v>
       </c>
       <c r="AE4" t="n">
-        <v>1298734.830550439</v>
+        <v>1414323.266954516</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.160564768644103e-06</v>
+        <v>2.162044139296168e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.20023148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>1174785.401108487</v>
+        <v>1279342.239371549</v>
       </c>
     </row>
     <row r="5">
@@ -20704,28 +20704,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>873.8152230947153</v>
+        <v>946.4576965855042</v>
       </c>
       <c r="AB5" t="n">
-        <v>1195.59253824511</v>
+        <v>1294.985175234957</v>
       </c>
       <c r="AC5" t="n">
-        <v>1081.486864419662</v>
+        <v>1171.393607633641</v>
       </c>
       <c r="AD5" t="n">
-        <v>873815.2230947153</v>
+        <v>946457.6965855042</v>
       </c>
       <c r="AE5" t="n">
-        <v>1195592.53824511</v>
+        <v>1294985.175234957</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.222873062796095e-06</v>
+        <v>2.278119765440017e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1081486.864419662</v>
+        <v>1171393.607633641</v>
       </c>
     </row>
     <row r="6">
@@ -20810,28 +20810,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>840.4532205181032</v>
+        <v>912.9251018083</v>
       </c>
       <c r="AB6" t="n">
-        <v>1149.945174492112</v>
+        <v>1249.104399707112</v>
       </c>
       <c r="AC6" t="n">
-        <v>1040.196020996773</v>
+        <v>1129.891628928101</v>
       </c>
       <c r="AD6" t="n">
-        <v>840453.2205181032</v>
+        <v>912925.1018083</v>
       </c>
       <c r="AE6" t="n">
-        <v>1149945.174492112</v>
+        <v>1249104.399707112</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.258341675439964e-06</v>
+        <v>2.344195100628104e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.17303240740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>1040196.020996773</v>
+        <v>1129891.628928101</v>
       </c>
     </row>
     <row r="7">
@@ -20916,28 +20916,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>802.418301010152</v>
+        <v>886.8976073765956</v>
       </c>
       <c r="AB7" t="n">
-        <v>1097.904119639111</v>
+        <v>1213.49243357364</v>
       </c>
       <c r="AC7" t="n">
-        <v>993.121691378863</v>
+        <v>1097.678418860698</v>
       </c>
       <c r="AD7" t="n">
-        <v>802418.3010101521</v>
+        <v>886897.6073765956</v>
       </c>
       <c r="AE7" t="n">
-        <v>1097904.119639111</v>
+        <v>1213492.433573639</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.28592249213766e-06</v>
+        <v>2.395576070229587e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.91261574074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>993121.6913788631</v>
+        <v>1097678.418860698</v>
       </c>
     </row>
     <row r="8">
@@ -21022,28 +21022,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>785.0430257472015</v>
+        <v>857.6001583834186</v>
       </c>
       <c r="AB8" t="n">
-        <v>1074.130501481297</v>
+        <v>1173.406371348946</v>
       </c>
       <c r="AC8" t="n">
-        <v>971.6169939715484</v>
+        <v>1061.418114153588</v>
       </c>
       <c r="AD8" t="n">
-        <v>785043.0257472014</v>
+        <v>857600.1583834186</v>
       </c>
       <c r="AE8" t="n">
-        <v>1074130.501481297</v>
+        <v>1173406.371348946</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.304397933649168e-06</v>
+        <v>2.429994416469352e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.74189814814815</v>
       </c>
       <c r="AH8" t="n">
-        <v>971616.9939715484</v>
+        <v>1061418.114153588</v>
       </c>
     </row>
     <row r="9">
@@ -21128,28 +21128,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>771.4305689134042</v>
+        <v>843.9877015496213</v>
       </c>
       <c r="AB9" t="n">
-        <v>1055.505337502084</v>
+        <v>1154.781207369733</v>
       </c>
       <c r="AC9" t="n">
-        <v>954.7693895019296</v>
+        <v>1044.570509683969</v>
       </c>
       <c r="AD9" t="n">
-        <v>771430.5689134041</v>
+        <v>843987.7015496213</v>
       </c>
       <c r="AE9" t="n">
-        <v>1055505.337502084</v>
+        <v>1154781.207369733</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.318479502251062e-06</v>
+        <v>2.456227310738055e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.61747685185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>954769.3895019296</v>
+        <v>1044570.509683969</v>
       </c>
     </row>
     <row r="10">
@@ -21234,28 +21234,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>759.5593514740251</v>
+        <v>832.1164841102423</v>
       </c>
       <c r="AB10" t="n">
-        <v>1039.262614080374</v>
+        <v>1138.538483948023</v>
       </c>
       <c r="AC10" t="n">
-        <v>940.0768488067827</v>
+        <v>1029.877968988822</v>
       </c>
       <c r="AD10" t="n">
-        <v>759559.3514740251</v>
+        <v>832116.4841102422</v>
       </c>
       <c r="AE10" t="n">
-        <v>1039262.614080374</v>
+        <v>1138538.483948024</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.32996709768945e-06</v>
+        <v>2.477627829746734e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.5162037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>940076.8488067826</v>
+        <v>1029877.968988822</v>
       </c>
     </row>
     <row r="11">
@@ -21340,28 +21340,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>749.3475595729823</v>
+        <v>821.7341000086071</v>
       </c>
       <c r="AB11" t="n">
-        <v>1025.290389888904</v>
+        <v>1124.332847981707</v>
       </c>
       <c r="AC11" t="n">
-        <v>927.4381140820069</v>
+        <v>1017.028098981395</v>
       </c>
       <c r="AD11" t="n">
-        <v>749347.5595729823</v>
+        <v>821734.1000086071</v>
       </c>
       <c r="AE11" t="n">
-        <v>1025290.389888904</v>
+        <v>1124332.847981707</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.339072472875637e-06</v>
+        <v>2.494590453108452e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.4380787037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>927438.1140820069</v>
+        <v>1017028.098981395</v>
       </c>
     </row>
     <row r="12">
@@ -21446,28 +21446,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>739.3443466199083</v>
+        <v>811.7308870555332</v>
       </c>
       <c r="AB12" t="n">
-        <v>1011.603552615899</v>
+        <v>1110.646010708702</v>
       </c>
       <c r="AC12" t="n">
-        <v>915.0575293487404</v>
+        <v>1004.647514248129</v>
       </c>
       <c r="AD12" t="n">
-        <v>739344.3466199082</v>
+        <v>811730.8870555332</v>
       </c>
       <c r="AE12" t="n">
-        <v>1011603.552615899</v>
+        <v>1110646.010708702</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.348760168567918e-06</v>
+        <v>2.512637895406093e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.35706018518519</v>
       </c>
       <c r="AH12" t="n">
-        <v>915057.5293487405</v>
+        <v>1004647.514248129</v>
       </c>
     </row>
     <row r="13">
@@ -21552,28 +21552,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>731.3123916719093</v>
+        <v>803.6989321075342</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000.613877511203</v>
+        <v>1099.656335604006</v>
       </c>
       <c r="AC13" t="n">
-        <v>905.1166934119307</v>
+        <v>994.7066783113194</v>
       </c>
       <c r="AD13" t="n">
-        <v>731312.3916719093</v>
+        <v>803698.9321075343</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000613.877511203</v>
+        <v>1099656.335604006</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.354848064767985e-06</v>
+        <v>2.52397918428166e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.30497685185185</v>
       </c>
       <c r="AH13" t="n">
-        <v>905116.6934119307</v>
+        <v>994706.6783113193</v>
       </c>
     </row>
     <row r="14">
@@ -21658,28 +21658,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>724.5541588409897</v>
+        <v>796.9406992766147</v>
       </c>
       <c r="AB14" t="n">
-        <v>991.3669651997492</v>
+        <v>1090.409423292552</v>
       </c>
       <c r="AC14" t="n">
-        <v>896.7522934333589</v>
+        <v>986.3422783327471</v>
       </c>
       <c r="AD14" t="n">
-        <v>724554.1588409897</v>
+        <v>796940.6992766147</v>
       </c>
       <c r="AE14" t="n">
-        <v>991366.9651997492</v>
+        <v>1090409.423292552</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.360194825778479e-06</v>
+        <v>2.533939794511506e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.26157407407407</v>
       </c>
       <c r="AH14" t="n">
-        <v>896752.2934333589</v>
+        <v>986342.2783327472</v>
       </c>
     </row>
     <row r="15">
@@ -21764,28 +21764,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>717.6789460253519</v>
+        <v>790.0654864609769</v>
       </c>
       <c r="AB15" t="n">
-        <v>981.9599957124108</v>
+        <v>1081.002453805213</v>
       </c>
       <c r="AC15" t="n">
-        <v>888.2431119111276</v>
+        <v>977.8330968105158</v>
       </c>
       <c r="AD15" t="n">
-        <v>717678.9460253519</v>
+        <v>790065.4864609769</v>
       </c>
       <c r="AE15" t="n">
-        <v>981959.9957124108</v>
+        <v>1081002.453805213</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.364165192865479e-06</v>
+        <v>2.541336287256442e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.22974537037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>888243.1119111276</v>
+        <v>977833.0968105159</v>
       </c>
     </row>
     <row r="16">
@@ -21870,28 +21870,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>710.0013027319443</v>
+        <v>770.465669437343</v>
       </c>
       <c r="AB16" t="n">
-        <v>971.4551054446537</v>
+        <v>1054.185119470577</v>
       </c>
       <c r="AC16" t="n">
-        <v>878.7407936268189</v>
+        <v>953.5751712264116</v>
       </c>
       <c r="AD16" t="n">
-        <v>710001.3027319442</v>
+        <v>770465.669437343</v>
       </c>
       <c r="AE16" t="n">
-        <v>971455.1054446537</v>
+        <v>1054185.119470577</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.369829583242933e-06</v>
+        <v>2.551888616905883e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.18344907407407</v>
       </c>
       <c r="AH16" t="n">
-        <v>878740.7936268189</v>
+        <v>953575.1712264116</v>
       </c>
     </row>
     <row r="17">
@@ -21976,28 +21976,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>705.1491351270603</v>
+        <v>765.6135018324587</v>
       </c>
       <c r="AB17" t="n">
-        <v>964.8161556651243</v>
+        <v>1047.546169691047</v>
       </c>
       <c r="AC17" t="n">
-        <v>872.7354558964233</v>
+        <v>947.569833496016</v>
       </c>
       <c r="AD17" t="n">
-        <v>705149.1351270602</v>
+        <v>765613.5018324588</v>
       </c>
       <c r="AE17" t="n">
-        <v>964816.1556651243</v>
+        <v>1047546.169691047</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.37147066830556e-06</v>
+        <v>2.554945833907122e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.16898148148148</v>
       </c>
       <c r="AH17" t="n">
-        <v>872735.4558964233</v>
+        <v>947569.833496016</v>
       </c>
     </row>
     <row r="18">
@@ -22082,28 +22082,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>697.3306136587458</v>
+        <v>757.7949803641444</v>
       </c>
       <c r="AB18" t="n">
-        <v>954.1185096633533</v>
+        <v>1036.848523689276</v>
       </c>
       <c r="AC18" t="n">
-        <v>863.0587782148209</v>
+        <v>937.8931558144137</v>
       </c>
       <c r="AD18" t="n">
-        <v>697330.6136587459</v>
+        <v>757794.9803641444</v>
       </c>
       <c r="AE18" t="n">
-        <v>954118.5096633533</v>
+        <v>1036848.523689276</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.376499799949094e-06</v>
+        <v>2.564314724717374e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.12847222222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>863058.7782148209</v>
+        <v>937893.1558144137</v>
       </c>
     </row>
     <row r="19">
@@ -22188,28 +22188,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>693.5288361919048</v>
+        <v>753.9932028973035</v>
       </c>
       <c r="AB19" t="n">
-        <v>948.9167500106369</v>
+        <v>1031.64676403656</v>
       </c>
       <c r="AC19" t="n">
-        <v>858.3534672026442</v>
+        <v>933.1878448022369</v>
       </c>
       <c r="AD19" t="n">
-        <v>693528.8361919048</v>
+        <v>753993.2028973035</v>
       </c>
       <c r="AE19" t="n">
-        <v>948916.7500106369</v>
+        <v>1031646.76403656</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.378087946783894e-06</v>
+        <v>2.567273321815348e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.11400462962963</v>
       </c>
       <c r="AH19" t="n">
-        <v>858353.4672026442</v>
+        <v>933187.8448022369</v>
       </c>
     </row>
     <row r="20">
@@ -22294,28 +22294,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>687.5621505472076</v>
+        <v>748.0265172526064</v>
       </c>
       <c r="AB20" t="n">
-        <v>940.7528674799694</v>
+        <v>1023.482881505892</v>
       </c>
       <c r="AC20" t="n">
-        <v>850.9687341626225</v>
+        <v>925.8031117622153</v>
       </c>
       <c r="AD20" t="n">
-        <v>687562.1505472076</v>
+        <v>748026.5172526063</v>
       </c>
       <c r="AE20" t="n">
-        <v>940752.8674799694</v>
+        <v>1023482.881505892</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.381264240453494e-06</v>
+        <v>2.573190516011295e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.09085648148148</v>
       </c>
       <c r="AH20" t="n">
-        <v>850968.7341626225</v>
+        <v>925803.1117622153</v>
       </c>
     </row>
     <row r="21">
@@ -22400,28 +22400,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>682.479252889385</v>
+        <v>742.9436195947836</v>
       </c>
       <c r="AB21" t="n">
-        <v>933.7982226629182</v>
+        <v>1016.528236688841</v>
       </c>
       <c r="AC21" t="n">
-        <v>844.6778308860053</v>
+        <v>919.512208485598</v>
       </c>
       <c r="AD21" t="n">
-        <v>682479.252889385</v>
+        <v>742943.6195947836</v>
       </c>
       <c r="AE21" t="n">
-        <v>933798.2226629182</v>
+        <v>1016528.236688841</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.383275893110907e-06</v>
+        <v>2.576938072335396e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.07349537037037</v>
       </c>
       <c r="AH21" t="n">
-        <v>844677.8308860053</v>
+        <v>919512.208485598</v>
       </c>
     </row>
     <row r="22">
@@ -22506,28 +22506,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>676.5759735958326</v>
+        <v>737.0403403012313</v>
       </c>
       <c r="AB22" t="n">
-        <v>925.721095499178</v>
+        <v>1008.451109525101</v>
       </c>
       <c r="AC22" t="n">
-        <v>837.3715734024532</v>
+        <v>912.205951002046</v>
       </c>
       <c r="AD22" t="n">
-        <v>676575.9735958326</v>
+        <v>737040.3403012312</v>
       </c>
       <c r="AE22" t="n">
-        <v>925721.0954991779</v>
+        <v>1008451.109525101</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.385869866274414e-06</v>
+        <v>2.581770447595421e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH22" t="n">
-        <v>837371.5734024532</v>
+        <v>912205.951002046</v>
       </c>
     </row>
     <row r="23">
@@ -22612,28 +22612,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>673.3443286858811</v>
+        <v>733.8086953912798</v>
       </c>
       <c r="AB23" t="n">
-        <v>921.2994163632707</v>
+        <v>1004.029430389194</v>
       </c>
       <c r="AC23" t="n">
-        <v>833.3718931174116</v>
+        <v>908.2062707170041</v>
       </c>
       <c r="AD23" t="n">
-        <v>673344.3286858811</v>
+        <v>733808.6953912798</v>
       </c>
       <c r="AE23" t="n">
-        <v>921299.4163632707</v>
+        <v>1004029.430389193</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.385393422223974e-06</v>
+        <v>2.580882868466028e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11.05613425925926</v>
       </c>
       <c r="AH23" t="n">
-        <v>833371.8931174115</v>
+        <v>908206.2707170042</v>
       </c>
     </row>
     <row r="24">
@@ -22718,28 +22718,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>671.2752550340767</v>
+        <v>731.7396217394755</v>
       </c>
       <c r="AB24" t="n">
-        <v>918.4684185117849</v>
+        <v>1001.198432537708</v>
       </c>
       <c r="AC24" t="n">
-        <v>830.8110817275409</v>
+        <v>905.6454593271337</v>
       </c>
       <c r="AD24" t="n">
-        <v>671275.2550340767</v>
+        <v>731739.6217394755</v>
       </c>
       <c r="AE24" t="n">
-        <v>918468.4185117849</v>
+        <v>1001198.432537708</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.387934457159654e-06</v>
+        <v>2.585616623822786e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>12</v>
+        <v>11.03587962962963</v>
       </c>
       <c r="AH24" t="n">
-        <v>830811.0817275409</v>
+        <v>905645.4593271337</v>
       </c>
     </row>
     <row r="25">
@@ -22824,28 +22824,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>673.8615491916751</v>
+        <v>734.3259158970737</v>
       </c>
       <c r="AB25" t="n">
-        <v>922.0071002774562</v>
+        <v>1004.737114303379</v>
       </c>
       <c r="AC25" t="n">
-        <v>834.0120366720677</v>
+        <v>908.8464142716605</v>
       </c>
       <c r="AD25" t="n">
-        <v>673861.549191675</v>
+        <v>734325.9158970737</v>
       </c>
       <c r="AE25" t="n">
-        <v>922007.1002774562</v>
+        <v>1004737.114303379</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.387722704248348e-06</v>
+        <v>2.585222144209723e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>12</v>
+        <v>11.03877314814815</v>
       </c>
       <c r="AH25" t="n">
-        <v>834012.0366720677</v>
+        <v>908846.4142716605</v>
       </c>
     </row>
   </sheetData>
@@ -23121,28 +23121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>991.0775381187975</v>
+        <v>1080.04140603167</v>
       </c>
       <c r="AB2" t="n">
-        <v>1356.036010909289</v>
+        <v>1477.760299796533</v>
       </c>
       <c r="AC2" t="n">
-        <v>1226.6178372366</v>
+        <v>1336.724930833559</v>
       </c>
       <c r="AD2" t="n">
-        <v>991077.5381187975</v>
+        <v>1080041.40603167</v>
       </c>
       <c r="AE2" t="n">
-        <v>1356036.010909288</v>
+        <v>1477760.299796534</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.055219367125717e-06</v>
+        <v>2.115184430310666e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1226617.8372366</v>
+        <v>1336724.930833559</v>
       </c>
     </row>
     <row r="3">
@@ -23227,28 +23227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>719.8198762248921</v>
+        <v>797.5779197940836</v>
       </c>
       <c r="AB3" t="n">
-        <v>984.8893108625962</v>
+        <v>1091.281296516738</v>
       </c>
       <c r="AC3" t="n">
-        <v>890.8928573346986</v>
+        <v>987.130941200099</v>
       </c>
       <c r="AD3" t="n">
-        <v>719819.8762248921</v>
+        <v>797577.9197940837</v>
       </c>
       <c r="AE3" t="n">
-        <v>984889.3108625961</v>
+        <v>1091281.296516738</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292550659248864e-06</v>
+        <v>2.590914377621787e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.82118055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>890892.8573346987</v>
+        <v>987130.941200099</v>
       </c>
     </row>
     <row r="4">
@@ -23333,28 +23333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>655.9828136910832</v>
+        <v>722.6204632797169</v>
       </c>
       <c r="AB4" t="n">
-        <v>897.5446256114037</v>
+        <v>988.7211976241883</v>
       </c>
       <c r="AC4" t="n">
-        <v>811.8842262548444</v>
+        <v>894.3590342018514</v>
       </c>
       <c r="AD4" t="n">
-        <v>655982.8136910831</v>
+        <v>722620.4632797169</v>
       </c>
       <c r="AE4" t="n">
-        <v>897544.6256114037</v>
+        <v>988721.1976241884</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.378686340559967e-06</v>
+        <v>2.763573122977946e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.01967592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>811884.2262548445</v>
+        <v>894359.0342018513</v>
       </c>
     </row>
     <row r="5">
@@ -23439,28 +23439,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>612.270755247887</v>
+        <v>678.9936561825411</v>
       </c>
       <c r="AB5" t="n">
-        <v>837.7358588095068</v>
+        <v>929.0290754749404</v>
       </c>
       <c r="AC5" t="n">
-        <v>757.783524214389</v>
+        <v>840.3638444121083</v>
       </c>
       <c r="AD5" t="n">
-        <v>612270.755247887</v>
+        <v>678993.6561825412</v>
       </c>
       <c r="AE5" t="n">
-        <v>837735.8588095068</v>
+        <v>929029.0754749405</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.423415042091863e-06</v>
+        <v>2.853231686889622e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.64351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>757783.524214389</v>
+        <v>840363.8444121083</v>
       </c>
     </row>
     <row r="6">
@@ -23545,28 +23545,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>590.4949676081878</v>
+        <v>657.0472763422497</v>
       </c>
       <c r="AB6" t="n">
-        <v>807.9412654809211</v>
+        <v>899.0010703715079</v>
       </c>
       <c r="AC6" t="n">
-        <v>730.8324850561092</v>
+        <v>813.2016699711772</v>
       </c>
       <c r="AD6" t="n">
-        <v>590494.9676081878</v>
+        <v>657047.2763422497</v>
       </c>
       <c r="AE6" t="n">
-        <v>807941.265480921</v>
+        <v>899001.0703715079</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.451764219119121e-06</v>
+        <v>2.910057537256177e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.41493055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>730832.4850561093</v>
+        <v>813201.6699711772</v>
       </c>
     </row>
     <row r="7">
@@ -23651,28 +23651,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>574.4365989764841</v>
+        <v>640.9889077105463</v>
       </c>
       <c r="AB7" t="n">
-        <v>785.9694970737997</v>
+        <v>877.0293019643867</v>
       </c>
       <c r="AC7" t="n">
-        <v>710.957671388193</v>
+        <v>793.3268563032609</v>
       </c>
       <c r="AD7" t="n">
-        <v>574436.5989764842</v>
+        <v>640988.9077105463</v>
       </c>
       <c r="AE7" t="n">
-        <v>785969.4970737997</v>
+        <v>877029.3019643867</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46928916491779e-06</v>
+        <v>2.945186244755502e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.27893518518519</v>
       </c>
       <c r="AH7" t="n">
-        <v>710957.671388193</v>
+        <v>793326.8563032609</v>
       </c>
     </row>
     <row r="8">
@@ -23757,28 +23757,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>560.0529966937806</v>
+        <v>615.6555036478769</v>
       </c>
       <c r="AB8" t="n">
-        <v>766.2892178708569</v>
+        <v>842.3670208949335</v>
       </c>
       <c r="AC8" t="n">
-        <v>693.1556504109336</v>
+        <v>761.9726946902597</v>
       </c>
       <c r="AD8" t="n">
-        <v>560052.9966937806</v>
+        <v>615655.5036478769</v>
       </c>
       <c r="AE8" t="n">
-        <v>766289.2178708569</v>
+        <v>842367.0208949335</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.483377846834367e-06</v>
+        <v>2.973426970392215e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.171875</v>
       </c>
       <c r="AH8" t="n">
-        <v>693155.6504109337</v>
+        <v>761972.6946902596</v>
       </c>
     </row>
     <row r="9">
@@ -23863,28 +23863,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>548.5009753230186</v>
+        <v>604.1034822771148</v>
       </c>
       <c r="AB9" t="n">
-        <v>750.4832325921661</v>
+        <v>826.5610356162427</v>
       </c>
       <c r="AC9" t="n">
-        <v>678.8581661834015</v>
+        <v>747.6752104627274</v>
       </c>
       <c r="AD9" t="n">
-        <v>548500.9753230186</v>
+        <v>604103.4822771149</v>
       </c>
       <c r="AE9" t="n">
-        <v>750483.2325921662</v>
+        <v>826561.0356162428</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.492655759316015e-06</v>
+        <v>2.992024521421269e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.10243055555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>678858.1661834015</v>
+        <v>747675.2104627274</v>
       </c>
     </row>
     <row r="10">
@@ -23969,28 +23969,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>536.2015306888057</v>
+        <v>591.8040376429021</v>
       </c>
       <c r="AB10" t="n">
-        <v>733.6545898304347</v>
+        <v>809.7323928545113</v>
       </c>
       <c r="AC10" t="n">
-        <v>663.6356254677011</v>
+        <v>732.452669747027</v>
       </c>
       <c r="AD10" t="n">
-        <v>536201.5306888057</v>
+        <v>591804.0376429021</v>
       </c>
       <c r="AE10" t="n">
-        <v>733654.5898304346</v>
+        <v>809732.3928545113</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.50073097943893e-06</v>
+        <v>3.008211278798409e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>663635.6254677011</v>
+        <v>732452.669747027</v>
       </c>
     </row>
     <row r="11">
@@ -24075,28 +24075,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>533.6467374618501</v>
+        <v>589.2492444159464</v>
       </c>
       <c r="AB11" t="n">
-        <v>730.1590090277909</v>
+        <v>806.2368120518676</v>
       </c>
       <c r="AC11" t="n">
-        <v>660.4736579907833</v>
+        <v>729.2907022701093</v>
       </c>
       <c r="AD11" t="n">
-        <v>533646.73746185</v>
+        <v>589249.2444159463</v>
       </c>
       <c r="AE11" t="n">
-        <v>730159.009027791</v>
+        <v>806236.8120518676</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.502449111379977e-06</v>
+        <v>3.011655269729716e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.03009259259259</v>
       </c>
       <c r="AH11" t="n">
-        <v>660473.6579907833</v>
+        <v>729290.7022701092</v>
       </c>
     </row>
     <row r="12">
@@ -24181,28 +24181,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>536.2651306447724</v>
+        <v>591.8676375988686</v>
       </c>
       <c r="AB12" t="n">
-        <v>733.7416100960199</v>
+        <v>809.8194131200966</v>
       </c>
       <c r="AC12" t="n">
-        <v>663.7143406412728</v>
+        <v>732.5313849205986</v>
       </c>
       <c r="AD12" t="n">
-        <v>536265.1306447724</v>
+        <v>591867.6375988686</v>
       </c>
       <c r="AE12" t="n">
-        <v>733741.6100960199</v>
+        <v>809819.4131200965</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.502162756056469e-06</v>
+        <v>3.011081271241164e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.03298611111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>663714.3406412727</v>
+        <v>732531.3849205986</v>
       </c>
     </row>
   </sheetData>
@@ -24478,28 +24478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>759.1730534053394</v>
+        <v>833.6045451074232</v>
       </c>
       <c r="AB2" t="n">
-        <v>1038.734064020531</v>
+        <v>1140.574514652985</v>
       </c>
       <c r="AC2" t="n">
-        <v>939.5987428228257</v>
+        <v>1031.719683780889</v>
       </c>
       <c r="AD2" t="n">
-        <v>759173.0534053394</v>
+        <v>833604.5451074232</v>
       </c>
       <c r="AE2" t="n">
-        <v>1038734.064020531</v>
+        <v>1140574.514652985</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.210390303087936e-06</v>
+        <v>2.532212209348197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.26215277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>939598.7428228257</v>
+        <v>1031719.683780888</v>
       </c>
     </row>
     <row r="3">
@@ -24584,28 +24584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>591.5020203572057</v>
+        <v>655.2882630524174</v>
       </c>
       <c r="AB3" t="n">
-        <v>809.319159480159</v>
+        <v>896.5943107861696</v>
       </c>
       <c r="AC3" t="n">
-        <v>732.0788747859465</v>
+        <v>811.0246081427554</v>
       </c>
       <c r="AD3" t="n">
-        <v>591502.0203572056</v>
+        <v>655288.2630524174</v>
       </c>
       <c r="AE3" t="n">
-        <v>809319.1594801589</v>
+        <v>896594.3107861696</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.412867738579111e-06</v>
+        <v>2.955807666912778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.21643518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>732078.8747859464</v>
+        <v>811024.6081427553</v>
       </c>
     </row>
     <row r="4">
@@ -24690,28 +24690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>534.5556678678378</v>
+        <v>598.4271619090702</v>
       </c>
       <c r="AB4" t="n">
-        <v>731.4026477084433</v>
+        <v>818.7944436671032</v>
       </c>
       <c r="AC4" t="n">
-        <v>661.5986055412119</v>
+        <v>740.6498511487333</v>
       </c>
       <c r="AD4" t="n">
-        <v>534555.6678678378</v>
+        <v>598427.1619090701</v>
       </c>
       <c r="AE4" t="n">
-        <v>731402.6477084432</v>
+        <v>818794.4436671032</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.486544707592547e-06</v>
+        <v>3.109944493693054e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.61168981481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>661598.6055412119</v>
+        <v>740649.8511487333</v>
       </c>
     </row>
     <row r="5">
@@ -24796,28 +24796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>509.1038340143045</v>
+        <v>572.8047358549445</v>
       </c>
       <c r="AB5" t="n">
-        <v>696.5783257743764</v>
+        <v>783.7367099581894</v>
       </c>
       <c r="AC5" t="n">
-        <v>630.0978680162898</v>
+        <v>708.93797834116</v>
       </c>
       <c r="AD5" t="n">
-        <v>509103.8340143045</v>
+        <v>572804.7358549446</v>
       </c>
       <c r="AE5" t="n">
-        <v>696578.3257743764</v>
+        <v>783736.7099581894</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.521981241676742e-06</v>
+        <v>3.184079939124215e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.34259259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>630097.8680162898</v>
+        <v>708937.97834116</v>
       </c>
     </row>
     <row r="6">
@@ -24902,28 +24902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>488.8892289907933</v>
+        <v>542.1155635337045</v>
       </c>
       <c r="AB6" t="n">
-        <v>668.9198113757752</v>
+        <v>741.7464304775402</v>
       </c>
       <c r="AC6" t="n">
-        <v>605.0790434129221</v>
+        <v>670.9551922004166</v>
       </c>
       <c r="AD6" t="n">
-        <v>488889.2289907933</v>
+        <v>542115.5635337045</v>
       </c>
       <c r="AE6" t="n">
-        <v>668919.8113757753</v>
+        <v>741746.4304775402</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.546023199986389e-06</v>
+        <v>3.234377219441989e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.16608796296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>605079.0434129222</v>
+        <v>670955.1922004166</v>
       </c>
     </row>
     <row r="7">
@@ -25008,28 +25008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>475.6011394233543</v>
+        <v>528.8274739662655</v>
       </c>
       <c r="AB7" t="n">
-        <v>650.7384610004674</v>
+        <v>723.5650801022325</v>
       </c>
       <c r="AC7" t="n">
-        <v>588.6328955997484</v>
+        <v>654.5090443872427</v>
       </c>
       <c r="AD7" t="n">
-        <v>475601.1394233542</v>
+        <v>528827.4739662656</v>
       </c>
       <c r="AE7" t="n">
-        <v>650738.4610004674</v>
+        <v>723565.0801022325</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.558431952662336e-06</v>
+        <v>3.260337106057615e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>588632.8955997484</v>
+        <v>654509.0443872428</v>
       </c>
     </row>
     <row r="8">
@@ -25114,28 +25114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>477.7364909815091</v>
+        <v>530.9628255244203</v>
       </c>
       <c r="AB8" t="n">
-        <v>653.6601432073969</v>
+        <v>726.4867623091617</v>
       </c>
       <c r="AC8" t="n">
-        <v>591.275736557455</v>
+        <v>657.1518853449495</v>
       </c>
       <c r="AD8" t="n">
-        <v>477736.490981509</v>
+        <v>530962.8255244202</v>
       </c>
       <c r="AE8" t="n">
-        <v>653660.143207397</v>
+        <v>726486.7623091617</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.559028527310219e-06</v>
+        <v>3.26158517752952e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.07349537037037</v>
       </c>
       <c r="AH8" t="n">
-        <v>591275.736557455</v>
+        <v>657151.8853449496</v>
       </c>
     </row>
   </sheetData>
@@ -47144,28 +47144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.7565635728527</v>
+        <v>681.4436677925182</v>
       </c>
       <c r="AB2" t="n">
-        <v>834.2958308414161</v>
+        <v>932.3812894465949</v>
       </c>
       <c r="AC2" t="n">
-        <v>754.6718076874635</v>
+        <v>843.3961277871698</v>
       </c>
       <c r="AD2" t="n">
-        <v>609756.5635728526</v>
+        <v>681443.6677925183</v>
       </c>
       <c r="AE2" t="n">
-        <v>834295.8308414161</v>
+        <v>932381.2894465949</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.336824853620126e-06</v>
+        <v>2.906064421330115e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.35648148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>754671.8076874635</v>
+        <v>843396.1277871698</v>
       </c>
     </row>
     <row r="3">
@@ -47250,28 +47250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>488.1208002752749</v>
+        <v>549.713111492639</v>
       </c>
       <c r="AB3" t="n">
-        <v>667.8684133065207</v>
+        <v>752.1417307751142</v>
       </c>
       <c r="AC3" t="n">
-        <v>604.1279892997509</v>
+        <v>680.3583796274859</v>
       </c>
       <c r="AD3" t="n">
-        <v>488120.8002752749</v>
+        <v>549713.1114926389</v>
       </c>
       <c r="AE3" t="n">
-        <v>667868.4133065207</v>
+        <v>752141.7307751141</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.512706620438396e-06</v>
+        <v>3.288406014940624e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>604127.9892997509</v>
+        <v>680358.3796274859</v>
       </c>
     </row>
     <row r="4">
@@ -47356,28 +47356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>451.3841169007896</v>
+        <v>512.8058359175615</v>
       </c>
       <c r="AB4" t="n">
-        <v>617.6036624054633</v>
+        <v>701.6435680992099</v>
       </c>
       <c r="AC4" t="n">
-        <v>558.6604356776695</v>
+        <v>634.6796907227533</v>
       </c>
       <c r="AD4" t="n">
-        <v>451384.1169007897</v>
+        <v>512805.8359175614</v>
       </c>
       <c r="AE4" t="n">
-        <v>617603.6624054633</v>
+        <v>701643.5680992099</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.57491322428149e-06</v>
+        <v>3.42363419962813e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.33680555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>558660.4356776695</v>
+        <v>634679.6907227533</v>
       </c>
     </row>
     <row r="5">
@@ -47462,28 +47462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>431.639289891103</v>
+        <v>482.966305414124</v>
       </c>
       <c r="AB5" t="n">
-        <v>590.58791901052</v>
+        <v>660.8158060372297</v>
       </c>
       <c r="AC5" t="n">
-        <v>534.2230369155055</v>
+        <v>597.7484729698446</v>
       </c>
       <c r="AD5" t="n">
-        <v>431639.289891103</v>
+        <v>482966.3054141239</v>
       </c>
       <c r="AE5" t="n">
-        <v>590587.91901052</v>
+        <v>660815.8060372297</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.600647503847531e-06</v>
+        <v>3.479576811745878e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.15740740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>534223.0369155055</v>
+        <v>597748.4729698446</v>
       </c>
     </row>
     <row r="6">
@@ -47568,28 +47568,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>433.6260936352881</v>
+        <v>484.9531091583092</v>
       </c>
       <c r="AB6" t="n">
-        <v>593.3063515449093</v>
+        <v>663.534238571619</v>
       </c>
       <c r="AC6" t="n">
-        <v>536.6820260641568</v>
+        <v>600.2074621184958</v>
       </c>
       <c r="AD6" t="n">
-        <v>433626.0936352881</v>
+        <v>484953.1091583092</v>
       </c>
       <c r="AE6" t="n">
-        <v>593306.3515449093</v>
+        <v>663534.2385716189</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.601573197357101e-06</v>
+        <v>3.481589135922775e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.14872685185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>536682.0260641568</v>
+        <v>600207.4621184957</v>
       </c>
     </row>
   </sheetData>
@@ -47865,28 +47865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>364.1693404155239</v>
+        <v>430.5853000936647</v>
       </c>
       <c r="AB2" t="n">
-        <v>498.2725575739373</v>
+        <v>589.1458036709168</v>
       </c>
       <c r="AC2" t="n">
-        <v>450.7181240090068</v>
+        <v>532.9185550398925</v>
       </c>
       <c r="AD2" t="n">
-        <v>364169.3404155239</v>
+        <v>430585.3000936647</v>
       </c>
       <c r="AE2" t="n">
-        <v>498272.5575739373</v>
+        <v>589145.8036709168</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607235175762072e-06</v>
+        <v>3.822852202272824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.92418981481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>450718.1240090068</v>
+        <v>532918.5550398924</v>
       </c>
     </row>
     <row r="3">
@@ -47971,28 +47971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.3401390678103</v>
+        <v>401.4144031140537</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.1413694873726</v>
+        <v>549.2328954942653</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.1762984345622</v>
+        <v>496.8148788015022</v>
       </c>
       <c r="AD3" t="n">
-        <v>344340.1390678103</v>
+        <v>401414.4031140537</v>
       </c>
       <c r="AE3" t="n">
-        <v>471141.3694873726</v>
+        <v>549232.8954942654</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.660423300474084e-06</v>
+        <v>3.94936159103957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.54224537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>426176.2984345622</v>
+        <v>496814.8788015022</v>
       </c>
     </row>
   </sheetData>
@@ -48268,28 +48268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1265.197071494199</v>
+        <v>1368.735786003989</v>
       </c>
       <c r="AB2" t="n">
-        <v>1731.098449773823</v>
+        <v>1872.764686771823</v>
       </c>
       <c r="AC2" t="n">
-        <v>1565.884843339343</v>
+        <v>1694.030653508065</v>
       </c>
       <c r="AD2" t="n">
-        <v>1265197.0714942</v>
+        <v>1368735.786003989</v>
       </c>
       <c r="AE2" t="n">
-        <v>1731098.449773823</v>
+        <v>1872764.686771823</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.260619219821044e-07</v>
+        <v>1.797095573007493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.30613425925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>1565884.843339343</v>
+        <v>1694030.653508065</v>
       </c>
     </row>
     <row r="3">
@@ -48374,28 +48374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>860.4190034604106</v>
+        <v>940.9112053678934</v>
       </c>
       <c r="AB3" t="n">
-        <v>1177.263239541955</v>
+        <v>1287.396221257099</v>
       </c>
       <c r="AC3" t="n">
-        <v>1064.906888259404</v>
+        <v>1164.528932772266</v>
       </c>
       <c r="AD3" t="n">
-        <v>860419.0034604106</v>
+        <v>940911.2053678934</v>
       </c>
       <c r="AE3" t="n">
-        <v>1177263.239541955</v>
+        <v>1287396.221257099</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.189677706568349e-06</v>
+        <v>2.30866261643031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1064906.888259404</v>
+        <v>1164528.932772266</v>
       </c>
     </row>
     <row r="4">
@@ -48480,28 +48480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>761.5692581474443</v>
+        <v>830.6235446083452</v>
       </c>
       <c r="AB4" t="n">
-        <v>1042.012657061771</v>
+        <v>1136.495778257686</v>
       </c>
       <c r="AC4" t="n">
-        <v>942.5644315457445</v>
+        <v>1028.030216262615</v>
       </c>
       <c r="AD4" t="n">
-        <v>761569.2581474443</v>
+        <v>830623.5446083453</v>
       </c>
       <c r="AE4" t="n">
-        <v>1042012.657061771</v>
+        <v>1136495.778257686</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.287612715424932e-06</v>
+        <v>2.498713159143389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>942564.4315457444</v>
+        <v>1028030.216262615</v>
       </c>
     </row>
     <row r="5">
@@ -48586,28 +48586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>707.7421892837692</v>
+        <v>788.2343016827011</v>
       </c>
       <c r="AB5" t="n">
-        <v>968.3640867598094</v>
+        <v>1078.496946005405</v>
       </c>
       <c r="AC5" t="n">
-        <v>875.9447774269842</v>
+        <v>975.5667111586195</v>
       </c>
       <c r="AD5" t="n">
-        <v>707742.1892837692</v>
+        <v>788234.3016827011</v>
       </c>
       <c r="AE5" t="n">
-        <v>968364.0867598094</v>
+        <v>1078496.946005405</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.339294481976512e-06</v>
+        <v>2.599005668391863e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.96759259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>875944.7774269842</v>
+        <v>975566.7111586195</v>
       </c>
     </row>
     <row r="6">
@@ -48692,28 +48692,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>681.2973160197879</v>
+        <v>750.4368538267094</v>
       </c>
       <c r="AB6" t="n">
-        <v>932.1810444945606</v>
+        <v>1026.780810343125</v>
       </c>
       <c r="AC6" t="n">
-        <v>843.2149939323122</v>
+        <v>928.7862908998944</v>
       </c>
       <c r="AD6" t="n">
-        <v>681297.3160197879</v>
+        <v>750436.8538267093</v>
       </c>
       <c r="AE6" t="n">
-        <v>932181.0444945607</v>
+        <v>1026780.810343125</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.372087199874191e-06</v>
+        <v>2.662642501698504e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.68113425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>843214.9939323121</v>
+        <v>928786.2908998944</v>
       </c>
     </row>
     <row r="7">
@@ -48798,28 +48798,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>663.9860059192897</v>
+        <v>733.1255437262112</v>
       </c>
       <c r="AB7" t="n">
-        <v>908.4949462939583</v>
+        <v>1003.094712142522</v>
       </c>
       <c r="AC7" t="n">
-        <v>821.7894637003276</v>
+        <v>907.3607606679099</v>
       </c>
       <c r="AD7" t="n">
-        <v>663986.0059192897</v>
+        <v>733125.5437262112</v>
       </c>
       <c r="AE7" t="n">
-        <v>908494.9462939582</v>
+        <v>1003094.712142522</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.391696358887331e-06</v>
+        <v>2.700695608101462e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.5162037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>821789.4637003276</v>
+        <v>907360.7606679099</v>
       </c>
     </row>
     <row r="8">
@@ -48904,28 +48904,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>648.7148848521168</v>
+        <v>717.6838304584462</v>
       </c>
       <c r="AB8" t="n">
-        <v>887.6003247355391</v>
+        <v>981.9666788092563</v>
       </c>
       <c r="AC8" t="n">
-        <v>802.8889954976584</v>
+        <v>888.2491571825899</v>
       </c>
       <c r="AD8" t="n">
-        <v>648714.8848521168</v>
+        <v>717683.8304584462</v>
       </c>
       <c r="AE8" t="n">
-        <v>887600.324735539</v>
+        <v>981966.6788092563</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.408591255777182e-06</v>
+        <v>2.733481476612485e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>802888.9954976584</v>
+        <v>888249.1571825899</v>
       </c>
     </row>
     <row r="9">
@@ -49010,28 +49010,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>636.3907160157737</v>
+        <v>705.3596616221029</v>
       </c>
       <c r="AB9" t="n">
-        <v>870.7378532296982</v>
+        <v>965.1042073034153</v>
       </c>
       <c r="AC9" t="n">
-        <v>787.6358546057076</v>
+        <v>872.996016290639</v>
       </c>
       <c r="AD9" t="n">
-        <v>636390.7160157737</v>
+        <v>705359.6616221028</v>
       </c>
       <c r="AE9" t="n">
-        <v>870737.8532296983</v>
+        <v>965104.2073034153</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.420057628420459e-06</v>
+        <v>2.755732869339639e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.28761574074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>787635.8546057076</v>
+        <v>872996.0162906389</v>
       </c>
     </row>
     <row r="10">
@@ -49116,28 +49116,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>626.8054190021385</v>
+        <v>684.4217900164573</v>
       </c>
       <c r="AB10" t="n">
-        <v>857.6228269821831</v>
+        <v>936.456087658868</v>
       </c>
       <c r="AC10" t="n">
-        <v>775.7725080562003</v>
+        <v>847.0820329770788</v>
       </c>
       <c r="AD10" t="n">
-        <v>626805.4190021384</v>
+        <v>684421.7900164573</v>
       </c>
       <c r="AE10" t="n">
-        <v>857622.8269821831</v>
+        <v>936456.0876588681</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.428975918254118e-06</v>
+        <v>2.773039508127425e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.21527777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>775772.5080562003</v>
+        <v>847082.0329770788</v>
       </c>
     </row>
     <row r="11">
@@ -49222,28 +49222,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>615.4944862677023</v>
+        <v>673.1108572820212</v>
       </c>
       <c r="AB11" t="n">
-        <v>842.1467098117934</v>
+        <v>920.9799704884786</v>
       </c>
       <c r="AC11" t="n">
-        <v>761.7734097876856</v>
+        <v>833.0829347085643</v>
       </c>
       <c r="AD11" t="n">
-        <v>615494.4862677023</v>
+        <v>673110.8572820212</v>
       </c>
       <c r="AE11" t="n">
-        <v>842146.7098117934</v>
+        <v>920979.9704884785</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.437783421878664e-06</v>
+        <v>2.7901311576135e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.14872685185185</v>
       </c>
       <c r="AH11" t="n">
-        <v>761773.4097876856</v>
+        <v>833082.9347085643</v>
       </c>
     </row>
     <row r="12">
@@ -49328,28 +49328,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>606.8629417782902</v>
+        <v>664.4793127926091</v>
       </c>
       <c r="AB12" t="n">
-        <v>830.3366498445121</v>
+        <v>909.1699105211973</v>
       </c>
       <c r="AC12" t="n">
-        <v>751.0904853681584</v>
+        <v>822.400010289037</v>
       </c>
       <c r="AD12" t="n">
-        <v>606862.9417782902</v>
+        <v>664479.3127926091</v>
       </c>
       <c r="AE12" t="n">
-        <v>830336.6498445121</v>
+        <v>909169.9105211972</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.44177172540676e-06</v>
+        <v>2.797870772475118e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.11689814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>751090.4853681584</v>
+        <v>822400.010289037</v>
       </c>
     </row>
     <row r="13">
@@ -49434,28 +49434,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>597.6478155831749</v>
+        <v>655.2641865974938</v>
       </c>
       <c r="AB13" t="n">
-        <v>817.7281076416799</v>
+        <v>896.5613683183651</v>
       </c>
       <c r="AC13" t="n">
-        <v>739.6852847369644</v>
+        <v>810.994809657843</v>
       </c>
       <c r="AD13" t="n">
-        <v>597647.8155831748</v>
+        <v>655264.1865974938</v>
       </c>
       <c r="AE13" t="n">
-        <v>817728.1076416799</v>
+        <v>896561.3683183651</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.449028222103713e-06</v>
+        <v>2.811952571737229e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.0619212962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>739685.2847369644</v>
+        <v>810994.809657843</v>
       </c>
     </row>
     <row r="14">
@@ -49540,28 +49540,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>589.6876360091318</v>
+        <v>647.3040070234506</v>
       </c>
       <c r="AB14" t="n">
-        <v>806.836638770136</v>
+        <v>885.6698994468213</v>
       </c>
       <c r="AC14" t="n">
-        <v>729.8332823682481</v>
+        <v>801.1428072891268</v>
       </c>
       <c r="AD14" t="n">
-        <v>589687.6360091318</v>
+        <v>647304.0070234506</v>
       </c>
       <c r="AE14" t="n">
-        <v>806836.6387701361</v>
+        <v>885669.8994468213</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.453071918736366e-06</v>
+        <v>2.819799681249704e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.03009259259259</v>
       </c>
       <c r="AH14" t="n">
-        <v>729833.2823682481</v>
+        <v>801142.8072891268</v>
       </c>
     </row>
     <row r="15">
@@ -49646,28 +49646,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>586.5269223315968</v>
+        <v>644.1432933459156</v>
       </c>
       <c r="AB15" t="n">
-        <v>802.5120108756865</v>
+        <v>881.3452715523715</v>
       </c>
       <c r="AC15" t="n">
-        <v>725.9213908903915</v>
+        <v>797.2309158112702</v>
       </c>
       <c r="AD15" t="n">
-        <v>586526.9223315967</v>
+        <v>644143.2933459156</v>
       </c>
       <c r="AE15" t="n">
-        <v>802512.0108756865</v>
+        <v>881345.2715523716</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.453847422200162e-06</v>
+        <v>2.821304606361686e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.02430555555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>725921.3908903915</v>
+        <v>797230.9158112701</v>
       </c>
     </row>
     <row r="16">
@@ -49752,28 +49752,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>588.8341879012547</v>
+        <v>646.4505589155737</v>
       </c>
       <c r="AB16" t="n">
-        <v>805.6689134174655</v>
+        <v>884.5021740941506</v>
       </c>
       <c r="AC16" t="n">
-        <v>728.7770030843238</v>
+        <v>800.0865280052024</v>
       </c>
       <c r="AD16" t="n">
-        <v>588834.1879012547</v>
+        <v>646450.5589155736</v>
       </c>
       <c r="AE16" t="n">
-        <v>805668.9134174655</v>
+        <v>884502.1740941507</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.453570456677378e-06</v>
+        <v>2.820767133107406e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.02719907407407</v>
       </c>
       <c r="AH16" t="n">
-        <v>728777.0030843238</v>
+        <v>800086.5280052023</v>
       </c>
     </row>
   </sheetData>
@@ -50049,28 +50049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1694.43866817762</v>
+        <v>1814.306975218864</v>
       </c>
       <c r="AB2" t="n">
-        <v>2318.405739158832</v>
+        <v>2482.414845069146</v>
       </c>
       <c r="AC2" t="n">
-        <v>2097.140349316404</v>
+        <v>2245.496656346864</v>
       </c>
       <c r="AD2" t="n">
-        <v>1694438.66817762</v>
+        <v>1814306.975218864</v>
       </c>
       <c r="AE2" t="n">
-        <v>2318405.739158832</v>
+        <v>2482414.845069146</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.817823641690681e-07</v>
+        <v>1.466930353087067e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.75694444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>2097140.349316404</v>
+        <v>2245496.656346864</v>
       </c>
     </row>
     <row r="3">
@@ -50155,28 +50155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1054.15254776786</v>
+        <v>1137.97511135071</v>
       </c>
       <c r="AB3" t="n">
-        <v>1442.33802178417</v>
+        <v>1557.02775126874</v>
       </c>
       <c r="AC3" t="n">
-        <v>1304.683305319216</v>
+        <v>1408.427207989825</v>
       </c>
       <c r="AD3" t="n">
-        <v>1054152.54776786</v>
+        <v>1137975.111350711</v>
       </c>
       <c r="AE3" t="n">
-        <v>1442338.02178417</v>
+        <v>1557027.75126874</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.071681314039491e-06</v>
+        <v>2.010894489890007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.41261574074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1304683.305319216</v>
+        <v>1408427.207989825</v>
       </c>
     </row>
     <row r="4">
@@ -50261,28 +50261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>914.0127837255282</v>
+        <v>985.9338574588262</v>
       </c>
       <c r="AB4" t="n">
-        <v>1250.592614091404</v>
+        <v>1348.998200107141</v>
       </c>
       <c r="AC4" t="n">
-        <v>1131.237810220277</v>
+        <v>1220.251705219779</v>
       </c>
       <c r="AD4" t="n">
-        <v>914012.7837255282</v>
+        <v>985933.8574588262</v>
       </c>
       <c r="AE4" t="n">
-        <v>1250592.614091404</v>
+        <v>1348998.20010714</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183402636462395e-06</v>
+        <v>2.220527511125242e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.05266203703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>1131237.810220277</v>
+        <v>1220251.705219779</v>
       </c>
     </row>
     <row r="5">
@@ -50367,28 +50367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>844.6185691618242</v>
+        <v>916.4543020405504</v>
       </c>
       <c r="AB5" t="n">
-        <v>1155.644388268664</v>
+        <v>1253.933207162203</v>
       </c>
       <c r="AC5" t="n">
-        <v>1045.351309809388</v>
+        <v>1134.259581776951</v>
       </c>
       <c r="AD5" t="n">
-        <v>844618.5691618242</v>
+        <v>916454.3020405504</v>
       </c>
       <c r="AE5" t="n">
-        <v>1155644.388268664</v>
+        <v>1253933.207162203</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.243026486030663e-06</v>
+        <v>2.332405239132769e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.42476851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>1045351.309809388</v>
+        <v>1134259.581776951</v>
       </c>
     </row>
     <row r="6">
@@ -50473,28 +50473,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>810.3207398686998</v>
+        <v>882.1564727474262</v>
       </c>
       <c r="AB6" t="n">
-        <v>1108.716585116373</v>
+        <v>1207.005404009912</v>
       </c>
       <c r="AC6" t="n">
-        <v>1002.902230326366</v>
+        <v>1091.81050229393</v>
       </c>
       <c r="AD6" t="n">
-        <v>810320.7398686998</v>
+        <v>882156.4727474261</v>
       </c>
       <c r="AE6" t="n">
-        <v>1108716.585116373</v>
+        <v>1207005.404009912</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.280284719691049e-06</v>
+        <v>2.402316299248485e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.0630787037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>1002902.230326366</v>
+        <v>1091810.50229393</v>
       </c>
     </row>
     <row r="7">
@@ -50579,28 +50579,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>775.025595089504</v>
+        <v>846.9465793142509</v>
       </c>
       <c r="AB7" t="n">
-        <v>1060.424210917585</v>
+        <v>1158.829674463774</v>
       </c>
       <c r="AC7" t="n">
-        <v>959.2188125423377</v>
+        <v>1048.232596760613</v>
       </c>
       <c r="AD7" t="n">
-        <v>775025.595089504</v>
+        <v>846946.579314251</v>
       </c>
       <c r="AE7" t="n">
-        <v>1060424.210917585</v>
+        <v>1158829.674463774</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.305586156302829e-06</v>
+        <v>2.449791718295547e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.83159722222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>959218.8125423377</v>
+        <v>1048232.596760613</v>
       </c>
     </row>
     <row r="8">
@@ -50685,28 +50685,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>758.3098609550292</v>
+        <v>830.230845179776</v>
       </c>
       <c r="AB8" t="n">
-        <v>1037.553006028653</v>
+        <v>1135.958469574842</v>
       </c>
       <c r="AC8" t="n">
-        <v>938.5304033480676</v>
+        <v>1027.544187566343</v>
       </c>
       <c r="AD8" t="n">
-        <v>758309.8609550291</v>
+        <v>830230.845179776</v>
       </c>
       <c r="AE8" t="n">
-        <v>1037553.006028653</v>
+        <v>1135958.469574841</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.323628108992242e-06</v>
+        <v>2.483645498122355e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.66956018518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>938530.4033480675</v>
+        <v>1027544.187566343</v>
       </c>
     </row>
     <row r="9">
@@ -50791,28 +50791,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>743.5690837536472</v>
+        <v>815.490067978394</v>
       </c>
       <c r="AB9" t="n">
-        <v>1017.384024344529</v>
+        <v>1115.789487890718</v>
       </c>
       <c r="AC9" t="n">
-        <v>920.2863209685328</v>
+        <v>1009.300105186809</v>
       </c>
       <c r="AD9" t="n">
-        <v>743569.0837536472</v>
+        <v>815490.067978394</v>
       </c>
       <c r="AE9" t="n">
-        <v>1017384.024344529</v>
+        <v>1115789.487890718</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.338840998094262e-06</v>
+        <v>2.512190845017741e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.53645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>920286.3209685328</v>
+        <v>1009300.105186809</v>
       </c>
     </row>
     <row r="10">
@@ -50897,28 +50897,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>732.6349044183787</v>
+        <v>804.3852964425334</v>
       </c>
       <c r="AB10" t="n">
-        <v>1002.423397796068</v>
+        <v>1100.595449567409</v>
       </c>
       <c r="AC10" t="n">
-        <v>906.7535156204851</v>
+        <v>995.5561645561098</v>
       </c>
       <c r="AD10" t="n">
-        <v>732634.9044183787</v>
+        <v>804385.2964425335</v>
       </c>
       <c r="AE10" t="n">
-        <v>1002423.397796068</v>
+        <v>1100595.449567409</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.349943738210824e-06</v>
+        <v>2.533023940295776e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.44097222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>906753.5156204852</v>
+        <v>995556.1645561098</v>
       </c>
     </row>
     <row r="11">
@@ -51003,28 +51003,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>722.4203727886999</v>
+        <v>794.1707648128546</v>
       </c>
       <c r="AB11" t="n">
-        <v>988.4474249870095</v>
+        <v>1086.619476758351</v>
       </c>
       <c r="AC11" t="n">
-        <v>894.1113900409225</v>
+        <v>982.9140389765472</v>
       </c>
       <c r="AD11" t="n">
-        <v>722420.3727886998</v>
+        <v>794170.7648128546</v>
       </c>
       <c r="AE11" t="n">
-        <v>988447.4249870095</v>
+        <v>1086619.476758351</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.359018093113784e-06</v>
+        <v>2.550050989321094e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.36574074074074</v>
       </c>
       <c r="AH11" t="n">
-        <v>894111.3900409226</v>
+        <v>982914.0389765472</v>
       </c>
     </row>
     <row r="12">
@@ -51109,28 +51109,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>714.3681791952208</v>
+        <v>786.1185712193754</v>
       </c>
       <c r="AB12" t="n">
-        <v>977.4300584747016</v>
+        <v>1075.602110246043</v>
       </c>
       <c r="AC12" t="n">
-        <v>884.1455055255784</v>
+        <v>972.9481544612028</v>
       </c>
       <c r="AD12" t="n">
-        <v>714368.1791952208</v>
+        <v>786118.5712193755</v>
       </c>
       <c r="AE12" t="n">
-        <v>977430.0584747016</v>
+        <v>1075602.110246043</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.365637034337118e-06</v>
+        <v>2.562470719198384e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.31076388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>884145.5055255784</v>
+        <v>972948.1544612028</v>
       </c>
     </row>
     <row r="13">
@@ -51215,28 +51215,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>706.0302836135558</v>
+        <v>777.7806756377104</v>
       </c>
       <c r="AB13" t="n">
-        <v>966.0217818978753</v>
+        <v>1064.193833669217</v>
       </c>
       <c r="AC13" t="n">
-        <v>873.8260188536276</v>
+        <v>962.6286677892523</v>
       </c>
       <c r="AD13" t="n">
-        <v>706030.2836135557</v>
+        <v>777780.6756377104</v>
       </c>
       <c r="AE13" t="n">
-        <v>966021.7818978752</v>
+        <v>1064193.833669217</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.371775568536179e-06</v>
+        <v>2.573989017068452e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.25868055555556</v>
       </c>
       <c r="AH13" t="n">
-        <v>873826.0188536276</v>
+        <v>962628.6677892522</v>
       </c>
     </row>
     <row r="14">
@@ -51321,28 +51321,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>699.4359014933644</v>
+        <v>771.1862935175193</v>
       </c>
       <c r="AB14" t="n">
-        <v>956.999057357423</v>
+        <v>1055.171109128764</v>
       </c>
       <c r="AC14" t="n">
-        <v>865.6644104798427</v>
+        <v>954.4670594154672</v>
       </c>
       <c r="AD14" t="n">
-        <v>699435.9014933645</v>
+        <v>771186.2935175193</v>
       </c>
       <c r="AE14" t="n">
-        <v>956999.057357423</v>
+        <v>1055171.109128764</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.376312745987659e-06</v>
+        <v>2.582502541581111e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.22106481481481</v>
       </c>
       <c r="AH14" t="n">
-        <v>865664.4104798427</v>
+        <v>954467.0594154672</v>
       </c>
     </row>
     <row r="15">
@@ -51427,28 +51427,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>692.1646815610493</v>
+        <v>752.0989245902226</v>
       </c>
       <c r="AB15" t="n">
-        <v>947.0502534624455</v>
+        <v>1029.054928887151</v>
       </c>
       <c r="AC15" t="n">
-        <v>856.6651064653679</v>
+        <v>930.8433707618242</v>
       </c>
       <c r="AD15" t="n">
-        <v>692164.6815610493</v>
+        <v>752098.9245902227</v>
       </c>
       <c r="AE15" t="n">
-        <v>947050.2534624456</v>
+        <v>1029054.928887151</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.381063437672149e-06</v>
+        <v>2.591416702541424e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>11.18344907407407</v>
       </c>
       <c r="AH15" t="n">
-        <v>856665.1064653679</v>
+        <v>930843.3707618242</v>
       </c>
     </row>
     <row r="16">
@@ -51533,28 +51533,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>684.4928845141296</v>
+        <v>744.4271275433031</v>
       </c>
       <c r="AB16" t="n">
-        <v>936.5533622870513</v>
+        <v>1018.558037711757</v>
       </c>
       <c r="AC16" t="n">
-        <v>847.170023851274</v>
+        <v>921.3482881477304</v>
       </c>
       <c r="AD16" t="n">
-        <v>684492.8845141296</v>
+        <v>744427.1275433031</v>
       </c>
       <c r="AE16" t="n">
-        <v>936553.3622870513</v>
+        <v>1018558.037711757</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.386241157822662e-06</v>
+        <v>2.601132136397047e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>11.14293981481481</v>
       </c>
       <c r="AH16" t="n">
-        <v>847170.0238512739</v>
+        <v>921348.2881477304</v>
       </c>
     </row>
     <row r="17">
@@ -51639,28 +51639,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>679.8982027118984</v>
+        <v>739.8324457410719</v>
       </c>
       <c r="AB17" t="n">
-        <v>930.2667159421835</v>
+        <v>1012.271391366889</v>
       </c>
       <c r="AC17" t="n">
-        <v>841.4833662101969</v>
+        <v>915.6616305066532</v>
       </c>
       <c r="AD17" t="n">
-        <v>679898.2027118984</v>
+        <v>739832.4457410718</v>
       </c>
       <c r="AE17" t="n">
-        <v>930266.7159421835</v>
+        <v>1012271.391366889</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.388002650245001e-06</v>
+        <v>2.604437387090197e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>11.12847222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>841483.3662101969</v>
+        <v>915661.6305066532</v>
       </c>
     </row>
     <row r="18">
@@ -51745,28 +51745,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>672.6884120980267</v>
+        <v>732.6226551272001</v>
       </c>
       <c r="AB18" t="n">
-        <v>920.4019623507709</v>
+        <v>1002.406637775476</v>
       </c>
       <c r="AC18" t="n">
-        <v>832.5600908562801</v>
+        <v>906.7383551527363</v>
       </c>
       <c r="AD18" t="n">
-        <v>672688.4120980267</v>
+        <v>732622.6551272001</v>
       </c>
       <c r="AE18" t="n">
-        <v>920401.9623507708</v>
+        <v>1002406.637775476</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.390404685366372e-06</v>
+        <v>2.60894454712631e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>11.10821759259259</v>
       </c>
       <c r="AH18" t="n">
-        <v>832560.0908562801</v>
+        <v>906738.3551527363</v>
       </c>
     </row>
     <row r="19">
@@ -51851,28 +51851,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>665.8170939795599</v>
+        <v>725.7513370087333</v>
       </c>
       <c r="AB19" t="n">
-        <v>911.0003217599238</v>
+        <v>993.0049971846294</v>
       </c>
       <c r="AC19" t="n">
-        <v>824.0557296481379</v>
+        <v>898.2339939445943</v>
       </c>
       <c r="AD19" t="n">
-        <v>665817.09397956</v>
+        <v>725751.3370087333</v>
       </c>
       <c r="AE19" t="n">
-        <v>911000.3217599238</v>
+        <v>993004.9971846293</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.394835105701346e-06</v>
+        <v>2.617257753415142e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>11.07349537037037</v>
       </c>
       <c r="AH19" t="n">
-        <v>824055.7296481379</v>
+        <v>898233.9939445943</v>
       </c>
     </row>
     <row r="20">
@@ -51957,28 +51957,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>660.0170261526266</v>
+        <v>719.9512691817999</v>
       </c>
       <c r="AB20" t="n">
-        <v>903.0644130781803</v>
+        <v>985.0690885028855</v>
       </c>
       <c r="AC20" t="n">
-        <v>816.8772129528621</v>
+        <v>891.0554772493185</v>
       </c>
       <c r="AD20" t="n">
-        <v>660017.0261526266</v>
+        <v>719951.2691818</v>
       </c>
       <c r="AE20" t="n">
-        <v>903064.4130781803</v>
+        <v>985069.0885028855</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.397610790730487e-06</v>
+        <v>2.622466027234651e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>11.05034722222222</v>
       </c>
       <c r="AH20" t="n">
-        <v>816877.2129528621</v>
+        <v>891055.4772493185</v>
       </c>
     </row>
     <row r="21">
@@ -52063,28 +52063,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>657.5385077767287</v>
+        <v>717.4727508059019</v>
       </c>
       <c r="AB21" t="n">
-        <v>899.673194891763</v>
+        <v>981.6778703164687</v>
       </c>
       <c r="AC21" t="n">
-        <v>813.809647870552</v>
+        <v>887.9879121670084</v>
       </c>
       <c r="AD21" t="n">
-        <v>657538.5077767287</v>
+        <v>717472.7508059019</v>
       </c>
       <c r="AE21" t="n">
-        <v>899673.194891763</v>
+        <v>981677.8703164686</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.396863490914949e-06</v>
+        <v>2.621063799667859e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>12</v>
+        <v>11.05613425925926</v>
       </c>
       <c r="AH21" t="n">
-        <v>813809.647870552</v>
+        <v>887987.9121670084</v>
       </c>
     </row>
     <row r="22">
@@ -52169,28 +52169,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>656.0422491669306</v>
+        <v>715.9764921961039</v>
       </c>
       <c r="AB22" t="n">
-        <v>897.6259478515664</v>
+        <v>979.6306232762716</v>
       </c>
       <c r="AC22" t="n">
-        <v>811.9577872145423</v>
+        <v>886.1360515109989</v>
       </c>
       <c r="AD22" t="n">
-        <v>656042.2491669306</v>
+        <v>715976.4921961039</v>
       </c>
       <c r="AE22" t="n">
-        <v>897625.9478515664</v>
+        <v>979630.6232762716</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.399692554502342e-06</v>
+        <v>2.626372232599282e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>11.03587962962963</v>
       </c>
       <c r="AH22" t="n">
-        <v>811957.7872145424</v>
+        <v>886136.0515109989</v>
       </c>
     </row>
     <row r="23">
@@ -52275,28 +52275,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>658.455619035136</v>
+        <v>718.3898620643095</v>
       </c>
       <c r="AB23" t="n">
-        <v>900.9280269756093</v>
+        <v>982.9327024003146</v>
       </c>
       <c r="AC23" t="n">
-        <v>814.944720541484</v>
+        <v>889.1229848379403</v>
       </c>
       <c r="AD23" t="n">
-        <v>658455.619035136</v>
+        <v>718389.8620643094</v>
       </c>
       <c r="AE23" t="n">
-        <v>900928.0269756094</v>
+        <v>982932.7024003146</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.3998526901771e-06</v>
+        <v>2.626672709935023e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>11.03298611111111</v>
       </c>
       <c r="AH23" t="n">
-        <v>814944.720541484</v>
+        <v>889122.9848379403</v>
       </c>
     </row>
   </sheetData>
@@ -52572,28 +52572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.3552227788693</v>
+        <v>362.2311292122491</v>
       </c>
       <c r="AB2" t="n">
-        <v>420.5369753614937</v>
+        <v>495.6206114977732</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.4015166603439</v>
+        <v>448.3192759443221</v>
       </c>
       <c r="AD2" t="n">
-        <v>307355.2227788693</v>
+        <v>362231.1292122491</v>
       </c>
       <c r="AE2" t="n">
-        <v>420536.9753614936</v>
+        <v>495620.6114977732</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.65098945908405e-06</v>
+        <v>4.128999344352373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.01967592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>380401.5166603439</v>
+        <v>448319.2759443221</v>
       </c>
     </row>
   </sheetData>
@@ -52869,28 +52869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.4192949437011</v>
+        <v>915.8455298838726</v>
       </c>
       <c r="AB2" t="n">
-        <v>1134.848070738774</v>
+        <v>1253.100258240305</v>
       </c>
       <c r="AC2" t="n">
-        <v>1026.539763636736</v>
+        <v>1133.506128331108</v>
       </c>
       <c r="AD2" t="n">
-        <v>829419.294943701</v>
+        <v>915845.5298838726</v>
       </c>
       <c r="AE2" t="n">
-        <v>1134848.070738774</v>
+        <v>1253100.258240305</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.155829060719027e-06</v>
+        <v>2.380179665152106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.71643518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>1026539.763636736</v>
+        <v>1133506.128331108</v>
       </c>
     </row>
     <row r="3">
@@ -52975,28 +52975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>634.3524648127008</v>
+        <v>699.1508953127378</v>
       </c>
       <c r="AB3" t="n">
-        <v>867.949028012357</v>
+        <v>956.6090993275039</v>
       </c>
       <c r="AC3" t="n">
-        <v>785.1131909529686</v>
+        <v>865.3116694969895</v>
       </c>
       <c r="AD3" t="n">
-        <v>634352.4648127008</v>
+        <v>699150.8953127378</v>
       </c>
       <c r="AE3" t="n">
-        <v>867949.028012357</v>
+        <v>956609.0993275039</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.370640076835569e-06</v>
+        <v>2.82253643726267e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.41030092592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>785113.1909529686</v>
+        <v>865311.6694969895</v>
       </c>
     </row>
     <row r="4">
@@ -53081,28 +53081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>572.3464217598047</v>
+        <v>637.2301036058623</v>
       </c>
       <c r="AB4" t="n">
-        <v>783.1096243938281</v>
+        <v>871.8863403616244</v>
       </c>
       <c r="AC4" t="n">
-        <v>708.3707409429413</v>
+        <v>788.6747317376743</v>
       </c>
       <c r="AD4" t="n">
-        <v>572346.4217598047</v>
+        <v>637230.1036058622</v>
       </c>
       <c r="AE4" t="n">
-        <v>783109.6243938281</v>
+        <v>871886.3403616245</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.448122539682203e-06</v>
+        <v>2.982094791297076e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.74768518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>708370.7409429413</v>
+        <v>788674.7317376743</v>
       </c>
     </row>
     <row r="5">
@@ -53187,28 +53187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>544.5591412814075</v>
+        <v>609.2722309268729</v>
       </c>
       <c r="AB5" t="n">
-        <v>745.0898413549892</v>
+        <v>833.6331455479385</v>
       </c>
       <c r="AC5" t="n">
-        <v>673.9795126362286</v>
+        <v>754.0723681483106</v>
       </c>
       <c r="AD5" t="n">
-        <v>544559.1412814076</v>
+        <v>609272.2309268729</v>
       </c>
       <c r="AE5" t="n">
-        <v>745089.8413549892</v>
+        <v>833633.1455479385</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.488157105083233e-06</v>
+        <v>3.064537309580408e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.42939814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>673979.5126362286</v>
+        <v>754072.3681483106</v>
       </c>
     </row>
     <row r="6">
@@ -53293,28 +53293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>525.2221167021706</v>
+        <v>589.9352063476359</v>
       </c>
       <c r="AB6" t="n">
-        <v>718.632071236361</v>
+        <v>807.1753754293103</v>
       </c>
       <c r="AC6" t="n">
-        <v>650.0468349640087</v>
+        <v>730.1396904760907</v>
       </c>
       <c r="AD6" t="n">
-        <v>525222.1167021707</v>
+        <v>589935.2063476359</v>
       </c>
       <c r="AE6" t="n">
-        <v>718632.0712363609</v>
+        <v>807175.3754293103</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.511495904590148e-06</v>
+        <v>3.112598513337358e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.25289351851852</v>
       </c>
       <c r="AH6" t="n">
-        <v>650046.8349640087</v>
+        <v>730139.6904760906</v>
       </c>
     </row>
     <row r="7">
@@ -53399,28 +53399,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>509.2293452575558</v>
+        <v>563.2991696378215</v>
       </c>
       <c r="AB7" t="n">
-        <v>696.7500557945582</v>
+        <v>770.7307749039368</v>
       </c>
       <c r="AC7" t="n">
-        <v>630.2532083643698</v>
+        <v>697.1733114745407</v>
       </c>
       <c r="AD7" t="n">
-        <v>509229.3452575558</v>
+        <v>563299.1696378215</v>
       </c>
       <c r="AE7" t="n">
-        <v>696750.0557945581</v>
+        <v>770730.7749039368</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.52801530676003e-06</v>
+        <v>3.146616644963813e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.13136574074074</v>
       </c>
       <c r="AH7" t="n">
-        <v>630253.2083643698</v>
+        <v>697173.3114745407</v>
       </c>
     </row>
     <row r="8">
@@ -53505,28 +53505,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>495.2985792440356</v>
+        <v>549.3684036243012</v>
       </c>
       <c r="AB8" t="n">
-        <v>677.6893671528381</v>
+        <v>751.6700862622168</v>
       </c>
       <c r="AC8" t="n">
-        <v>613.0116450947712</v>
+        <v>679.931748204942</v>
       </c>
       <c r="AD8" t="n">
-        <v>495298.5792440356</v>
+        <v>549368.4036243012</v>
       </c>
       <c r="AE8" t="n">
-        <v>677689.3671528382</v>
+        <v>751670.0862622168</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.540537131180616e-06</v>
+        <v>3.1724026308586e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>613011.6450947712</v>
+        <v>679931.748204942</v>
       </c>
     </row>
     <row r="9">
@@ -53611,28 +53611,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>497.6390091265225</v>
+        <v>551.7088335067881</v>
       </c>
       <c r="AB9" t="n">
-        <v>680.891646570536</v>
+        <v>754.8723656799143</v>
       </c>
       <c r="AC9" t="n">
-        <v>615.9083034592712</v>
+        <v>682.828406569442</v>
       </c>
       <c r="AD9" t="n">
-        <v>497639.0091265225</v>
+        <v>551708.8335067881</v>
       </c>
       <c r="AE9" t="n">
-        <v>680891.646570536</v>
+        <v>754872.3656799144</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.539126221386748e-06</v>
+        <v>3.169497167659187e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.05324074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>615908.3034592712</v>
+        <v>682828.406569442</v>
       </c>
     </row>
   </sheetData>
@@ -53908,28 +53908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1081.773362084011</v>
+        <v>1171.778569368179</v>
       </c>
       <c r="AB2" t="n">
-        <v>1480.130038475855</v>
+        <v>1603.279133831558</v>
       </c>
       <c r="AC2" t="n">
-        <v>1338.868504979276</v>
+        <v>1450.26442351507</v>
       </c>
       <c r="AD2" t="n">
-        <v>1081773.362084011</v>
+        <v>1171778.569368179</v>
       </c>
       <c r="AE2" t="n">
-        <v>1480130.038475855</v>
+        <v>1603279.133831558</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009916558914373e-06</v>
+        <v>2.000830640747541e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1338868.504979276</v>
+        <v>1450264.42351507</v>
       </c>
     </row>
     <row r="3">
@@ -54014,28 +54014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>773.2973318781014</v>
+        <v>840.865265359294</v>
       </c>
       <c r="AB3" t="n">
-        <v>1058.059524946153</v>
+        <v>1150.508952421965</v>
       </c>
       <c r="AC3" t="n">
-        <v>957.0798088811609</v>
+        <v>1040.705992752268</v>
       </c>
       <c r="AD3" t="n">
-        <v>773297.3318781015</v>
+        <v>840865.265359294</v>
       </c>
       <c r="AE3" t="n">
-        <v>1058059.524946153</v>
+        <v>1150508.952421965</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.257089434147185e-06</v>
+        <v>2.490525614022468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.02662037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>957079.8088811609</v>
+        <v>1040705.992752268</v>
       </c>
     </row>
     <row r="4">
@@ -54120,28 +54120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>691.5960241270083</v>
+        <v>759.078616753629</v>
       </c>
       <c r="AB4" t="n">
-        <v>946.2721912737952</v>
+        <v>1038.60485162741</v>
       </c>
       <c r="AC4" t="n">
-        <v>855.9613014399854</v>
+        <v>939.4818622791535</v>
       </c>
       <c r="AD4" t="n">
-        <v>691596.0241270083</v>
+        <v>759078.6167536291</v>
       </c>
       <c r="AE4" t="n">
-        <v>946272.1912737952</v>
+        <v>1038604.85162741</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.346630878758659e-06</v>
+        <v>2.667923701432803e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>855961.3014399854</v>
+        <v>939481.8622791534</v>
       </c>
     </row>
     <row r="5">
@@ -54226,28 +54226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>645.8437768625051</v>
+        <v>713.4116208351466</v>
       </c>
       <c r="AB5" t="n">
-        <v>883.6719481198076</v>
+        <v>976.1212531260713</v>
       </c>
       <c r="AC5" t="n">
-        <v>799.335537632621</v>
+        <v>882.9616107225015</v>
       </c>
       <c r="AD5" t="n">
-        <v>645843.7768625051</v>
+        <v>713411.6208351465</v>
       </c>
       <c r="AE5" t="n">
-        <v>883671.9481198075</v>
+        <v>976121.2531260713</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.392250603383722e-06</v>
+        <v>2.758304775043884e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.76215277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>799335.537632621</v>
+        <v>882961.6107225015</v>
       </c>
     </row>
     <row r="6">
@@ -54332,28 +54332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>621.7409614648141</v>
+        <v>689.3088054374555</v>
       </c>
       <c r="AB6" t="n">
-        <v>850.6934127515181</v>
+        <v>943.1427177577817</v>
       </c>
       <c r="AC6" t="n">
-        <v>769.5044273942159</v>
+        <v>853.1305004840965</v>
       </c>
       <c r="AD6" t="n">
-        <v>621740.961464814</v>
+        <v>689308.8054374554</v>
       </c>
       <c r="AE6" t="n">
-        <v>850693.4127515181</v>
+        <v>943142.7177577817</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.423154287807151e-06</v>
+        <v>2.819530663619133e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.50752314814815</v>
       </c>
       <c r="AH6" t="n">
-        <v>769504.4273942159</v>
+        <v>853130.5004840965</v>
       </c>
     </row>
     <row r="7">
@@ -54438,28 +54438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>606.3516785891369</v>
+        <v>673.748930361186</v>
       </c>
       <c r="AB7" t="n">
-        <v>829.6371169937725</v>
+        <v>921.8530102251893</v>
       </c>
       <c r="AC7" t="n">
-        <v>750.457714950893</v>
+        <v>833.8726527581224</v>
       </c>
       <c r="AD7" t="n">
-        <v>606351.6785891369</v>
+        <v>673748.930361186</v>
       </c>
       <c r="AE7" t="n">
-        <v>829637.1169937724</v>
+        <v>921853.0102251894</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.440360734812137e-06</v>
+        <v>2.853619803045645e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.37152777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>750457.714950893</v>
+        <v>833872.6527581224</v>
       </c>
     </row>
     <row r="8">
@@ -54544,28 +54544,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>592.07615587855</v>
+        <v>659.4734076505991</v>
       </c>
       <c r="AB8" t="n">
-        <v>810.1047170295341</v>
+        <v>902.3206102609506</v>
       </c>
       <c r="AC8" t="n">
-        <v>732.7894598253458</v>
+        <v>816.2043976325753</v>
       </c>
       <c r="AD8" t="n">
-        <v>592076.15587855</v>
+        <v>659473.4076505991</v>
       </c>
       <c r="AE8" t="n">
-        <v>810104.717029534</v>
+        <v>902320.6102609506</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.454906974549905e-06</v>
+        <v>2.882438582100294e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.25578703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>732789.4598253458</v>
+        <v>816204.3976325752</v>
       </c>
     </row>
     <row r="9">
@@ -54650,28 +54650,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>578.6335999464475</v>
+        <v>634.9402260988663</v>
       </c>
       <c r="AB9" t="n">
-        <v>791.7120189595184</v>
+        <v>868.7532289342867</v>
       </c>
       <c r="AC9" t="n">
-        <v>716.1521350448187</v>
+        <v>785.8406400676123</v>
       </c>
       <c r="AD9" t="n">
-        <v>578633.5999464475</v>
+        <v>634940.2260988663</v>
       </c>
       <c r="AE9" t="n">
-        <v>791712.0189595184</v>
+        <v>868753.2289342866</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.46764200933978e-06</v>
+        <v>2.907669030688995e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.15740740740741</v>
       </c>
       <c r="AH9" t="n">
-        <v>716152.1350448187</v>
+        <v>785840.6400676123</v>
       </c>
     </row>
     <row r="10">
@@ -54756,28 +54756,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>567.5638527966038</v>
+        <v>623.8704789490226</v>
       </c>
       <c r="AB10" t="n">
-        <v>776.5659025463251</v>
+        <v>853.6071125210933</v>
       </c>
       <c r="AC10" t="n">
-        <v>702.4515427243927</v>
+        <v>772.1400477471863</v>
       </c>
       <c r="AD10" t="n">
-        <v>567563.8527966038</v>
+        <v>623870.4789490226</v>
       </c>
       <c r="AE10" t="n">
-        <v>776565.9025463251</v>
+        <v>853607.1125210933</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.476188632687651e-06</v>
+        <v>2.92460146507519e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11.09375</v>
       </c>
       <c r="AH10" t="n">
-        <v>702451.5427243926</v>
+        <v>772140.0477471863</v>
       </c>
     </row>
     <row r="11">
@@ -54862,28 +54862,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>557.4941555165973</v>
+        <v>613.8007816690161</v>
       </c>
       <c r="AB11" t="n">
-        <v>762.7880984841293</v>
+        <v>839.8293084588975</v>
       </c>
       <c r="AC11" t="n">
-        <v>689.9886729446233</v>
+        <v>759.6771779674168</v>
       </c>
       <c r="AD11" t="n">
-        <v>557494.1555165973</v>
+        <v>613800.7816690161</v>
       </c>
       <c r="AE11" t="n">
-        <v>762788.0984841293</v>
+        <v>839829.3084588974</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.482018448613683e-06</v>
+        <v>2.936151403762463e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>11.05034722222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>689988.6729446233</v>
+        <v>759677.1779674168</v>
       </c>
     </row>
     <row r="12">
@@ -54968,28 +54968,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>551.1905555739651</v>
+        <v>607.4971817263838</v>
       </c>
       <c r="AB12" t="n">
-        <v>754.1632349474174</v>
+        <v>831.2044449221855</v>
       </c>
       <c r="AC12" t="n">
-        <v>682.1869542787833</v>
+        <v>751.8754593015768</v>
       </c>
       <c r="AD12" t="n">
-        <v>551190.5555739651</v>
+        <v>607497.1817263839</v>
       </c>
       <c r="AE12" t="n">
-        <v>754163.2349474174</v>
+        <v>831204.4449221855</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.486263460210308e-06</v>
+        <v>2.94456155329203e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>11.01851851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>682186.9542787833</v>
+        <v>751875.4593015768</v>
       </c>
     </row>
     <row r="13">
@@ -55074,28 +55074,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>553.1682682129293</v>
+        <v>609.4748943653483</v>
       </c>
       <c r="AB13" t="n">
-        <v>756.8692286305723</v>
+        <v>833.9104386053403</v>
       </c>
       <c r="AC13" t="n">
-        <v>684.6346917227038</v>
+        <v>754.3231967454973</v>
       </c>
       <c r="AD13" t="n">
-        <v>553168.2682129294</v>
+        <v>609474.8943653483</v>
       </c>
       <c r="AE13" t="n">
-        <v>756869.2286305722</v>
+        <v>833910.4386053403</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.486206860055686e-06</v>
+        <v>2.944449417964969e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11.01851851851852</v>
       </c>
       <c r="AH13" t="n">
-        <v>684634.6917227037</v>
+        <v>754323.1967454973</v>
       </c>
     </row>
   </sheetData>
